--- a/literature_research/FS_scopus/FS_land.xlsx
+++ b/literature_research/FS_scopus/FS_land.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,7 +692,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The role of land as the central piece to sustainable food systems: Lessons learned from Portugal national food-related policies</t>
+          <t>Localization of the corporate food regime and the food sovereignty movement: taiwan’s food sovereignty movement under “third regionalism”</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -700,7 +700,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>This paper discusses to what extent land is considered in food-related policies from a systemic perspective. Based on existing literature and international agendas priorities, we argue that access to and preservation of land for food along the food chain play a major role in sustainable food systems. To further explore this argument, we address the following question: Where does land stand in sectorial and national food-related policies? The multiple dimensions and implications of food systems and the international agenda's priorities namely the “Right to adequate Food”, “Food Sovereignty” and the “Right to Land”, were used as our conceptual framework. To work out how land is being considered in food sectorial policies, both quantitative and qualitative methods were applied to examine ten Portuguese national food-related policies. Results are showing a lack of consideration for land access and land preservation, needed all along the food chain to build a national sustainable food system. On the other hand, there is a gap between current grassroots priorities international agendas and food-related national policies. Such a situation strongly suggests that building a sustainable food system needs a clear food territorial perspective, still neglected, and shifting from sectorial policies towards a more integrated food system approach, that will include land as a central piece. © 2023</t>
+          <t>Third regionalism explains the liberalization of trade centered around the Asia-Pacific region in the 21st century. Under regionalism, domestic agricultural markets that formerly enjoyed national food-security policies have loosened. This caused traditional domestic farmers’ organizations to become more regionally interconnected, forming a food sovereignty movement under the auspices of La Via Campesina. Localized food-production chains are promoted to mitigate the impact of regionalism on the Asia-Pacific agricultural sector. The Taiwan Rural Front (TRF) joined La Via Campesina and the food sovereignty movement in the 2010s. During the process of adopting regionalism, Taiwanese agricultural trade and technologies were protected by public agencies and state-owned enterprises. This context differs from that of Southeast Asia, where the food sovereignty movement has thrived. Therefore, the following question is raised: Why was it possible for the food sovereignty movement to originate in Taiwan? This paper describes the developmental characteristics of Taiwan’s food-security governance mechanism as a state-guided corporate food regime amid third regionalism. Further, the TRF does not advocate for localized food-production chains. Due to the formation of a state-guided corporate food regime, the food sovereignty movement has become connected with farmland protection movements that set the Taiwanese sovereignty movement apart. © 2022 Association for the Study of Food and Society.</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -728,7 +728,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Localization of the corporate food regime and the food sovereignty movement: taiwan’s food sovereignty movement under “third regionalism”</t>
+          <t>The making of peasant subalternity in Portugal: histories of marginalisation and resistance to agrarian modernisation</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Third regionalism explains the liberalization of trade centered around the Asia-Pacific region in the 21st century. Under regionalism, domestic agricultural markets that formerly enjoyed national food-security policies have loosened. This caused traditional domestic farmers’ organizations to become more regionally interconnected, forming a food sovereignty movement under the auspices of La Via Campesina. Localized food-production chains are promoted to mitigate the impact of regionalism on the Asia-Pacific agricultural sector. The Taiwan Rural Front (TRF) joined La Via Campesina and the food sovereignty movement in the 2010s. During the process of adopting regionalism, Taiwanese agricultural trade and technologies were protected by public agencies and state-owned enterprises. This context differs from that of Southeast Asia, where the food sovereignty movement has thrived. Therefore, the following question is raised: Why was it possible for the food sovereignty movement to originate in Taiwan? This paper describes the developmental characteristics of Taiwan’s food-security governance mechanism as a state-guided corporate food regime amid third regionalism. Further, the TRF does not advocate for localized food-production chains. Due to the formation of a state-guided corporate food regime, the food sovereignty movement has become connected with farmland protection movements that set the Taiwanese sovereignty movement apart. © 2022 Association for the Study of Food and Society.</t>
+          <t>This paper examines how marginalised, small-scale family farmers have been facing the difficulties of agrarian modernisation in Portugal. Central to the history of contemporary peasants in this country is their continuous subordination to the power of agrarian capital and landed elites. But subaltern peasants have mobilised, particularly through CNA, a Vía Campesina member organisation, to build an oppositional project, not without tensions. The article argues that a Gramscian notion of subalternity offers a powerful lens to analyse the links between agrarian change, conflict and resistance for its focus on uneven power relations and by emphasising the centrality of social struggle. © 2021 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -764,7 +764,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>‘Our struggle is for humanity’: a conversation with Morgan Ody, general coordinator of La Via Campesina International, on land, politics, peasant life and a vision for hope in our changing world</t>
+          <t>Food anarchy and the State monopoly on hunger</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -772,7 +772,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>A new generation of activists and peasant leaders have taken up the banner of food sovereignty amid an even more challenging and violent situation for rural people around the world. In this interview Morgan Ody, the new General Coordinator of La Via Campesina International, discusses her vision for rural movements. Originally from a small dairy farm, Ody is a second-generation militant in Confédéracion Paysanne. Ody speaks about land reform, climate politics, the perils and potential of state policies, rising populism, and the power of the peasantry: in short, about where the movement has been and where we are headed. © 2023 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>This article applies an anarchist lens to the food sovereignty movement. It analyzes food regimes as capitalist agriculture regimes which rely on the State’s monopoly on hunger, wherein the State relies on the dispossession of people from their land and food systems, the protection of property, and the primacy of capital. The interdependence of this State-capital-property trinity is violently enforced, and manufactures compliance through counterinsurgent strategies of social war. The State monopoly on hunger justifies a new offshoot of the larger food sovereignty movement, a prefigurative praxis which dismantles all food regimes to build new counter-worlds: food anarchy. © 2022 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -800,15 +800,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The making of peasant subalternity in Portugal: histories of marginalisation and resistance to agrarian modernisation</t>
+          <t>Perspectives on strengthening local food systems in Small Island Developing States</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>This paper examines how marginalised, small-scale family farmers have been facing the difficulties of agrarian modernisation in Portugal. Central to the history of contemporary peasants in this country is their continuous subordination to the power of agrarian capital and landed elites. But subaltern peasants have mobilised, particularly through CNA, a Vía Campesina member organisation, to build an oppositional project, not without tensions. The article argues that a Gramscian notion of subalternity offers a powerful lens to analyse the links between agrarian change, conflict and resistance for its focus on uneven power relations and by emphasising the centrality of social struggle. © 2021 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Small Island Developing States (SIDS) share high burdens of nutrition-related conditions, including non-communicable diseases, associated with an increasing reliance on imported, processed foods. Improving health through increasing the production and consumption of local, nutritious foods is a policy objective of many SIDS governments. This study aimed to understand contemporary challenges and opportunities to strengthening local food systems in two case study settings, Fiji and St. Vincent and the Grenadines. Fifty-two in-depth, semi-structured interviews were conducted with key stakeholders involved in local food production. Interviews were analysed by both country teams using thematic analysis. Local food production networks in both settings included formal governance bodies as well as more informal connections through civil society and communities. Their main function was the sharing of resources and knowledge, but levels of trust and cooperation between the stakeholders varied in a market open to intense competition from imports. Local food production was hindered by few and slow investments by local governments, dated technology, and lack of knowledge. Stakeholders believed this marginalisation was occurring against a background of rising preferences for imported foods in the population, and increasing disinterest in employment in the sector. Despite the challenges, strong narratives of resilience and opportunity were highlighted such as national pride in local produce for commercialisation and local diets. Efforts to support local food production in SIDS should focus on strengthening governance structures to prioritise local produce over corporate and import markets, assist collaboration and co-learning, and support alternative agro-food practices. © 2022, The Author(s).</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -836,15 +836,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Flavour, culture and food security: The spicy entanglements of chile pepper conservation in 21st century Mexico</t>
+          <t>“Food Village”: An Innovative Alternative Food Network Based on Human Scale Development Economic Model</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Political interests and power structures shape state-led crop conservation and food policy. As a crop that relates to culture and belonging, the chile crop is ideal for exploring how food security policy and crop conservation schemes integrate aspects beyond staple crops, calories and/or electoral incentives. What do these schemes mean for the food and ingredients we love? Reflecting from this perspective can be useful to grasp, re-frame and create more effective and inclusive food policies—ones that embody and valorise flavour, identities and territories beyond statements on paper. Summary: In line with the Food and Agriculture Organisation's (FAO) international action plan for crop genetic resources, the Mexican state inaugurated the National System of Genetic Resources for Food and Agriculture (SINAREFI) in 2002. In this paper, I explore SINAREFI's interest in landraces and in situ conservation through the case of chile pepper, set under the Ministry of Agriculture's interests of promoting industrial agriculture and paternalistic food security welfare programmes. Through the analyses of existing literature on food security in Mexico state programmes, archival work and interviews, this article analyses how discourses on food security shape research trajectories, some of which are inevitably constrained by current market-based agricultural systems. By exploring the state's chile research and conservation programme, this work demonstrates the complexity of international food security discourse and its application domestically. Particularly, this analysis highlights the limitations of state crop research and conservation efforts imposed by contradictory agricultural policies. In the case of chile, its link to Mexican culture and diet uncovers an important, but often overlooked, aspect of food security: flavour. In the case of chile, a non-staple but culturally symbolic crop, welfare programmes remained paternalistic and focused on caloric intake despite the transformation of national discourse on food security towards the integration of landraces and local cultures through the inauguration of SINAREFI. This case study reflects on the limits of current framings and strategies regarding food security and the need to direct policies towards local food sovereignty to achieve the necessary stability for food security to endure. © 2023 The Authors. Plants, People, Planet published by John Wiley &amp; Sons Ltd on behalf of New Phytologist Foundation.</t>
+          <t>Although the different alternative food networks (AFNs) have experienced increases worldwide for the last thirty years, they are still unable to provide an alternative capable of spreading on a large scale. They in fact remain niche experiments due to some limitations on their structure and governance. Thus, this study proposes and applies a design method to build a new sustainable food supply chain model capable of realizing a “jumping scale”. Based on the theoretical and value framework of the Civil Economy (CE), the Economy for the Common Good (ECG), and the Development on a Human Scale (H-SD), the proposed design model aims to satisfy the needs of all stakeholders in the supply chain. Max-Neef’s Needs Matrix and Design Thinking (DT) tools were used to develop the design model. Applying the design method to the food chain has allowed us to develop the concept of the “Food Village”, an innovative food supply network far from the current economic mechanisms and based on the community and eco-sustainability. © 2022 by the authors. Licensee MDPI, Basel, Switzerland.</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -872,15 +872,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Parity as radical pragmatism: Centering farm justice and agrarian expertise in agricultural policy</t>
+          <t>Why do some Participatory Guarantee Systems emerge, become effective, and are sustained over time, while others fail? An application of the Ostrom social-ecological system framework</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Rather than treating symptoms of a destructive agri-food system, agricultural policy, research, and advocacy need both to address the root causes of dysfunction and to learn from longstanding interventions to counter it. Specifically, this paper focuses on agricultural parity policies – farmer-led, government-enacted programs to secure a price floor and manage supply to prevent the economic and ecological devastation of unfettered corporate agro-capitalism. Though these programs remain off the radar in dominant policy, scholarship, and civil society activism, but in the past few years, vast swaths of humanity have mobilized in India to call for agri-food systems transformation through farmgate pricing and market protections. This paper asks what constitutes true farm justice and how it could be updated and expanded as an avenue for radically reimagining agriculture and thus food systems at large. Parity refers to both a pricing ratio to ensure livelihood, but also a broader farm justice movement built on principles of fair farmgate prices and cooperatively coordinated supply management. The programs and principles are now mostly considered “radical,” deemed inefficient, irrelevant, obsolete, and grievous government overeach—but from the vantage, we argue, of a system that profits from commodity crop overproduction and agroindustry consolidation. However, by examining parity through a producer-centric lens cognizant of farmers‘ ability, desire, and need to care for the land, ideas of price protection and supply coordination become foundational, so that farmers can make a dignified livelihood stewarding land and water while producing nourishing food. This paradox—that an agricultural governance principle can seem both radical and common sense, far-fetched and pragmatic—deserves attention and analysis. As overall numbers of farmers decline in Global North contexts, their voices dwindle from these conversations, leaving space for worldviews favoring de-agrarianization altogether. In Global South contexts maintaining robust farming populations, such policies for deliberate de-agrarianization bely an aggression toward rural and peasant ways of life and land tenure. Alongside the history of parity programs, principles, and movements in U.S., the paper will examine a vast version of a parity program in India – the Minimum Support Price (MSP) system, which Indian farmers defended and now struggle to expand into a legal right. From East India to the plains of the United States and beyond, parity principles and programs have the potential to offer a pragmatic direction for countering global agro-industrial corporate capture, along with its de-agrarianization, and environmental destruction. The paper explores what and why of parity programs and movements, even as it addresses the complexity of how international parity agreements would unfold. It ends with the need for global supply coordination grounded in food sovereignty and solidarity, and thus the methodological urgency of centering farm justice and agrarian expertise. Copyright © 2023 Graddy-Lovelace, Krikorian, Jewett, Vivekanandan, Stahl, Singh, Wilson, Naylor, Naylor and Pennick.</t>
+          <t>Participatory Guarantee Systems (PGS) can play an important role in territorial re-embedding of agri-food systems into their Social-Ecological Systems (SES), thereby stimulating multifunctionality of agriculture and the diversification of the production system. This represents an opportunity to promote endogenous rural development, employment and the viability of rural communities, as well as to support family agriculture, food sovereignty, and food security. However, the underlying biophysical, social, and economic conditions of the SES that affect the likelihood of building these institutions through collective action have hardly been studied. In order to explore this, we used the conceptual framework of SES designed by Elinor Ostrom to identify the conditions under which PGS, and the collective action that created them, emerge, become effective, and are sustained over time. This information may help land managers, policy makers, and planners to design policies that facilitate the building of effective and sustainable PGS over time. © 2022 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -908,15 +908,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Food anarchy and the State monopoly on hunger</t>
+          <t>The genetically modified organism shall not be refused? Talking back to the technosciences</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>This article applies an anarchist lens to the food sovereignty movement. It analyzes food regimes as capitalist agriculture regimes which rely on the State’s monopoly on hunger, wherein the State relies on the dispossession of people from their land and food systems, the protection of property, and the primacy of capital. The interdependence of this State-capital-property trinity is violently enforced, and manufactures compliance through counterinsurgent strategies of social war. The State monopoly on hunger justifies a new offshoot of the larger food sovereignty movement, a prefigurative praxis which dismantles all food regimes to build new counter-worlds: food anarchy. © 2022 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Starting from Marcel Mauss’ observation that “one has no right to refuse a gift”, this paper explores the politics of refusal in the context of field trials with genetically modified organisms in Flanders (Belgium). Based on a decade of activist research, and focusing on the genetically modified organism field trials of the Flemish Institute for Biotechnology, we show that the business model of this strategic research center – with its triple mission of carrying biotechnology research, technology transfer, and the promotion of biotechnology through communication and lobby activities – fosters a climate in which innovations in the technosciences have to “be accepted”. The future is laid out without including the possibility of refusal. Consternation is great when this is exactly what happens. Irrational fears and lack of understanding or lack of familiarity are invoked to explain refusal. Language of precision, innovation, safety, and control are deployed to re-assure the public. Refusal is not considered a legitimate option. Yet, if farmers and grassroots initiatives would accept the gift of genetically modified organisms, it would mean the acceptance of their dispossession and the impossibility of diverse food sovereignties. Starting from theoretical work on “the gift” and “the politics of refusal”, we argue that recognizing innovation as the intrinsically plural and divergent process it is, entails including options to refuse particular pathways as a first step to open up others. As we will argue, saying no to genetically modified organisms is part of saying yes to peasant autonomy, agrobiodiversity, and peoples’ food sovereignties. © The Author(s) 2021.</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -944,7 +944,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Perspectives on strengthening local food systems in Small Island Developing States</t>
+          <t>AFHVS 2021 Presidential Address: critical praxis and the social imaginary for food systems transformation</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -952,7 +952,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Small Island Developing States (SIDS) share high burdens of nutrition-related conditions, including non-communicable diseases, associated with an increasing reliance on imported, processed foods. Improving health through increasing the production and consumption of local, nutritious foods is a policy objective of many SIDS governments. This study aimed to understand contemporary challenges and opportunities to strengthening local food systems in two case study settings, Fiji and St. Vincent and the Grenadines. Fifty-two in-depth, semi-structured interviews were conducted with key stakeholders involved in local food production. Interviews were analysed by both country teams using thematic analysis. Local food production networks in both settings included formal governance bodies as well as more informal connections through civil society and communities. Their main function was the sharing of resources and knowledge, but levels of trust and cooperation between the stakeholders varied in a market open to intense competition from imports. Local food production was hindered by few and slow investments by local governments, dated technology, and lack of knowledge. Stakeholders believed this marginalisation was occurring against a background of rising preferences for imported foods in the population, and increasing disinterest in employment in the sector. Despite the challenges, strong narratives of resilience and opportunity were highlighted such as national pride in local produce for commercialisation and local diets. Efforts to support local food production in SIDS should focus on strengthening governance structures to prioritise local produce over corporate and import markets, assist collaboration and co-learning, and support alternative agro-food practices. © 2022, The Author(s).</t>
+          <t>In this 2021 AFHVS Presidential Address, Kim Niewolny provides a brief foray into the onto-epistemic framing of critical praxis for sustainable food systems transformation. Niewolny proposes we engage in the creative entanglement of critical praxis and the social imaginary to “unthink” the orthodoxies that govern our ideas of the possible. She offers several possibilities as pathways toward a food system that embodies health equity, ecological justice, land sovereignty, and human rights, including: (1) agroecological research and movement building; (2) food, farm, and health policy; (3) food and farm system worker protections as public health and human rights concerns; (4) intersectional food justice scholarship and curriculum; (5) narrative-led, community-based, and action-oriented methodologies as multi-dimensional inquiry; (6) and multi-sector and multi-racial coalitions as dynamic networks that challenge linear, neoliberal, and technical-rational practices. Niewolny concludes with a call for radical hope as a principle for critical food systems praxis. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -980,7 +980,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>“Food Village”: An Innovative Alternative Food Network Based on Human Scale Development Economic Model</t>
+          <t>Food sovereignty and property in Cuba and the United States</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -988,7 +988,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Although the different alternative food networks (AFNs) have experienced increases worldwide for the last thirty years, they are still unable to provide an alternative capable of spreading on a large scale. They in fact remain niche experiments due to some limitations on their structure and governance. Thus, this study proposes and applies a design method to build a new sustainable food supply chain model capable of realizing a “jumping scale”. Based on the theoretical and value framework of the Civil Economy (CE), the Economy for the Common Good (ECG), and the Development on a Human Scale (H-SD), the proposed design model aims to satisfy the needs of all stakeholders in the supply chain. Max-Neef’s Needs Matrix and Design Thinking (DT) tools were used to develop the design model. Applying the design method to the food chain has allowed us to develop the concept of the “Food Village”, an innovative food supply network far from the current economic mechanisms and based on the community and eco-sustainability. © 2022 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>Food sovereignty promotes agroecological farming methods and the reduction of food insecurity through changing political relations between people, land and food policy. Market orientations to land and private property in liberal democracies restrict access to food, and thus for food sovereigntists, reframing the social relationship to land through property is key to making food more available. This paper examines the case of usufruct land rights in Cuba as a framework for reworking land rights. We identify key limitations that impair producer autonomy, suggesting how different orientations toward property present unique problems and potential solutions towards the goal of food sovereignty. © 2021 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1016,15 +1016,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Why do some Participatory Guarantee Systems emerge, become effective, and are sustained over time, while others fail? An application of the Ostrom social-ecological system framework</t>
+          <t>Food sovereignty and farmland protection in the Municipal County of Antigonish, Nova Scotia</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Participatory Guarantee Systems (PGS) can play an important role in territorial re-embedding of agri-food systems into their Social-Ecological Systems (SES), thereby stimulating multifunctionality of agriculture and the diversification of the production system. This represents an opportunity to promote endogenous rural development, employment and the viability of rural communities, as well as to support family agriculture, food sovereignty, and food security. However, the underlying biophysical, social, and economic conditions of the SES that affect the likelihood of building these institutions through collective action have hardly been studied. In order to explore this, we used the conceptual framework of SES designed by Elinor Ostrom to identify the conditions under which PGS, and the collective action that created them, emerge, become effective, and are sustained over time. This information may help land managers, policy makers, and planners to design policies that facilitate the building of effective and sustainable PGS over time. © 2022 Elsevier Ltd</t>
+          <t>This case study of the Municipal County of Antigonish (MCA) in the Canadian province of Nova Scotia assessed the extent to which agricultural land use planning accommodates those societal interests seeking to embed food sovereignty at the municipal level. Data were collected through content analysis of legislative documents, key informant interviews, and a review of the grey literature. Results suggest that the relatively weak municipal planning system in place prioritizes private interests over the public interest in farmland protection. The resultant gaps in the legislative setup in the MCA further reveal that food sovereignty actors and/or ideas have little influence over municipal governance of farmland protection. Broader historical and contemporary trends in Nova Scotia and Canada at large suggest that farmland will continue to lose ground to forces intrinsic to the dominant policy paradigm of market liberalism. Concluding thoughts call for “bringing back the (Canadian) state” itself as central to constituting a new agricultural policy paradigm. © 2021 by the Authors.</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1052,15 +1052,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The genetically modified organism shall not be refused? Talking back to the technosciences</t>
+          <t>New rurality and agritourism in Empordà, Catalonia</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Starting from Marcel Mauss’ observation that “one has no right to refuse a gift”, this paper explores the politics of refusal in the context of field trials with genetically modified organisms in Flanders (Belgium). Based on a decade of activist research, and focusing on the genetically modified organism field trials of the Flemish Institute for Biotechnology, we show that the business model of this strategic research center – with its triple mission of carrying biotechnology research, technology transfer, and the promotion of biotechnology through communication and lobby activities – fosters a climate in which innovations in the technosciences have to “be accepted”. The future is laid out without including the possibility of refusal. Consternation is great when this is exactly what happens. Irrational fears and lack of understanding or lack of familiarity are invoked to explain refusal. Language of precision, innovation, safety, and control are deployed to re-assure the public. Refusal is not considered a legitimate option. Yet, if farmers and grassroots initiatives would accept the gift of genetically modified organisms, it would mean the acceptance of their dispossession and the impossibility of diverse food sovereignties. Starting from theoretical work on “the gift” and “the politics of refusal”, we argue that recognizing innovation as the intrinsically plural and divergent process it is, entails including options to refuse particular pathways as a first step to open up others. As we will argue, saying no to genetically modified organisms is part of saying yes to peasant autonomy, agrobiodiversity, and peoples’ food sovereignties. © The Author(s) 2021.</t>
+          <t>Agritourism in the Empordà region has become increasingly popular in recent years. It provides a variety of services, ranging from food catering, the tasting of local products, garden, orchard, and vineyard visits, and lodging. It creates opportunities for a relationship between visitors, places, ideas, and experiences, between the territory, landscape, and terroir, between local products and food sovereignty. It encourages re-peasantisation, the promotion of local know-how, and environmental conservation. This paper examines how this form of agritourism draws a part of its inspiration from a social imaginary of a peasant past that existed prior to the 1960s' advent of mass tourism. Using the tools of the new rurality approach, this paper analyses the landscape and evolution of agritourism in the region. It presents some of the producers' main principles and activities in the light of a regional context that comprises, among other constraints, environmental deterioration, socio-economic inequalities, and a considerable pressure for access to basic resources. Copyright © 2021 Inderscience Enterprises Ltd.</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1088,15 +1088,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AFHVS 2021 Presidential Address: critical praxis and the social imaginary for food systems transformation</t>
+          <t>Market dependency as prohibitive of agroecology and food sovereignty—a case study of the agrarian transition in the Scottish highlands</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>In this 2021 AFHVS Presidential Address, Kim Niewolny provides a brief foray into the onto-epistemic framing of critical praxis for sustainable food systems transformation. Niewolny proposes we engage in the creative entanglement of critical praxis and the social imaginary to “unthink” the orthodoxies that govern our ideas of the possible. She offers several possibilities as pathways toward a food system that embodies health equity, ecological justice, land sovereignty, and human rights, including: (1) agroecological research and movement building; (2) food, farm, and health policy; (3) food and farm system worker protections as public health and human rights concerns; (4) intersectional food justice scholarship and curriculum; (5) narrative-led, community-based, and action-oriented methodologies as multi-dimensional inquiry; (6) and multi-sector and multi-racial coalitions as dynamic networks that challenge linear, neoliberal, and technical-rational practices. Niewolny concludes with a call for radical hope as a principle for critical food systems praxis. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
+          <t>While there have been calls amongst the more ‘political’ or ‘radical’ agroecology and food sovereignty advocates for a break from capitalist food systems, conceptualisations of capitalism, and thus counter-capitalism, vary widely. The movements have largely presented small-scale producers and peasants as alternatives to industrial food systems, and have focused on reducing input dependency as a path towards autonomy of producers and the realisation of agroecological food systems. An alternative to this approach is presented here through applying Ellen M. Wood’s conceptualisation of capitalism as characterised by ‘market dependency’ to the case of the agrarian transition in the Scottish Highlands. This article demonstrates the specific ways in which market dependency, including for agricultural outputs, not just inputs, leads to a divergence from agroecological food systems. It argues that identifying ‘market dependency’ as a defining characteristic of capitalism could strengthen and refine the focus of agroecology and food sovereignty movements. © 2021 by the author. Licensee MDPI, Basel, Switzerland.</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1124,15 +1124,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Food sovereignty and property in Cuba and the United States</t>
+          <t>Achieving Food System Resilience Requires Challenging Dominant Land Property Regimes</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Food sovereignty promotes agroecological farming methods and the reduction of food insecurity through changing political relations between people, land and food policy. Market orientations to land and private property in liberal democracies restrict access to food, and thus for food sovereigntists, reframing the social relationship to land through property is key to making food more available. This paper examines the case of usufruct land rights in Cuba as a framework for reworking land rights. We identify key limitations that impair producer autonomy, suggesting how different orientations toward property present unique problems and potential solutions towards the goal of food sovereignty. © 2021 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Although evidence continues to indicate an urgent need to transition food systems away from industrialized monocultures and toward agroecological production, there is little sign of significant policy commitment toward food system transformation in global North geographies. The authors, a consortium of researchers studying the land-food nexus in global North geographies, argue that a key lock-in explaining the lack of reform arises from how most food system interventions work through dominant logics of property to achieve their goals of agroecological production. Doing so fails to recognize how land tenure systems, codified by law and performed by society, construct agricultural land use outcomes. In this perspective, the authors argue that achieving food system “resilience” requires urgent attention to the underlying property norms that drive land access regimes, especially where norms of property appear hegemonic. This paper first reviews research from political ecology, critical property law, and human geography to show how entrenched property relations in the global North frustrate the advancement of alternative models like food sovereignty and agroecology, and work to mediate acceptable forms of “sustainable agriculture.” Drawing on emerging cases of land tenure reform from the authors' collective experience working in Scotland, France, Australia, Canada, and Japan, we next observe how contesting dominant logics of property creates space to forge deep and equitable food system transformation. Equally, these cases demonstrate how powerful actors in the food system attempt to leverage legal and cultural norms of property to legitimize their control over the resources that drive agricultural production. Our formulation suggests that visions for food system “resilience” must embrace the reform of property relations as much as it does diversified farming practices. This work calls for a joint cultural and legal reimagination of our relation to land in places where property functions as an epistemic and apex entitlement. © Copyright © 2021 Calo, McKee, Perrin, Gasselin, McGreevy, Sippel, Desmarais, Shields, Baysse-Lainé, Magnan, Beingessner and Kobayashi.</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Food sovereignty and farmland protection in the Municipal County of Antigonish, Nova Scotia</t>
+          <t>The unwanted heritage of prefabricated wartime air raid shelters—underground space regeneration feasibility for urban agriculture to enhance neighbourhood community engagement</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>This case study of the Municipal County of Antigonish (MCA) in the Canadian province of Nova Scotia assessed the extent to which agricultural land use planning accommodates those societal interests seeking to embed food sovereignty at the municipal level. Data were collected through content analysis of legislative documents, key informant interviews, and a review of the grey literature. Results suggest that the relatively weak municipal planning system in place prioritizes private interests over the public interest in farmland protection. The resultant gaps in the legislative setup in the MCA further reveal that food sovereignty actors and/or ideas have little influence over municipal governance of farmland protection. Broader historical and contemporary trends in Nova Scotia and Canada at large suggest that farmland will continue to lose ground to forces intrinsic to the dominant policy paradigm of market liberalism. Concluding thoughts call for “bringing back the (Canadian) state” itself as central to constituting a new agricultural policy paradigm. © 2021 by the Authors.</t>
+          <t>The article deals with the problematic heritage associated with the system of Nazi German underground air raid shelters currently located within the Polish state, in the Baltic port city of Szczecin. The unwanted heritage has been inventoried, archival materials collected, and comparative analyses made of ways in which the underground space can be revitalised. An attempt was made to develop a typology of existing shelters and their locations. In order to overcome the negative associations with the warlike military space, positive system solutions were sought for the productive use of existing concrete structures located underground in central, easily accessible areas of the city districts. A process of upcycling the space was used to make ecologically efficient use of the material resources contained in the shelters. In order to activate the local community, a modular, hydroponic plant-growing system, adapted to the prefabricated spaces of the historical air raid shelters, was proposed. In this way, the central location of the underground structures within the boundaries of residential neighbourhoods was exploited. Such action strengthens the food sovereignty of the inhabitants, initiates bottom-up activity within the boundaries of the neighbourhood unit, and builds social ties in the spirit of a regenerative economy and positive sustainability. © 2021 by the authors. Licensee MDPI, Basel, Switzerland.</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1196,15 +1196,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>New rurality and agritourism in Empordà, Catalonia</t>
+          <t>Who is resilient in Africa's Green Revolution? Sustainable intensification and Climate Smart Agriculture in Rwanda</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Agritourism in the Empordà region has become increasingly popular in recent years. It provides a variety of services, ranging from food catering, the tasting of local products, garden, orchard, and vineyard visits, and lodging. It creates opportunities for a relationship between visitors, places, ideas, and experiences, between the territory, landscape, and terroir, between local products and food sovereignty. It encourages re-peasantisation, the promotion of local know-how, and environmental conservation. This paper examines how this form of agritourism draws a part of its inspiration from a social imaginary of a peasant past that existed prior to the 1960s' advent of mass tourism. Using the tools of the new rurality approach, this paper analyses the landscape and evolution of agritourism in the region. It presents some of the producers' main principles and activities in the light of a regional context that comprises, among other constraints, environmental deterioration, socio-economic inequalities, and a considerable pressure for access to basic resources. Copyright © 2021 Inderscience Enterprises Ltd.</t>
+          <t>Under the banner of a “New Green Revolution for Africa,” agricultural intensification programs aim to make smallholder agriculture more productive as well as "climate smart". As with Green Revolutions in Asia and Mexico, agricultural innovations (hybrid seeds, agronomic engineering, market linkages,and increased use of fertilizer and pesticides) are promoted as essential catalysts of agriculture-led economic growth. Intensification programs are now frequently linked to Climate Smart Agriculture (CSA), which attempts to build resilience and reduce greenhouse gas emissions while increasing crop yields. This article considers who and what is resilient in Africa's Green Revolution. We report on a multi-season study of smallholder food producers' experiences with Rwanda's Crop Intensification Program (CIP) and related policies that aim to commercialize subsistence agriculture while implementing CSA. We suggest that there are fundamental limits to the climate resilience afforded by CSA and development efforts rooted in Green Revolution thinking. Our findings illustrate that such efforts foreground technology and management adjustments in ways that have reduced smallholder resilience by inhibiting sovereignty over land use, decreasing livelihood flexibility, and constricting resource access. We put forth that rural development policies could better promote climate-resilient livelihoods through: 1) adaptive governance that enables smallholder land use decision-making; 2) support for smallholder food producers’ existing agro-ecological strategies of intensification; 3) participatory approaches to visualize and correct for inequalities in local processes of social-ecological resilence Such considerations are paramount for meeting the United Nations Sustainable Development Goals and building climate-resilient food systems. © 2020 The Authors</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Market dependency as prohibitive of agroecology and food sovereignty—a case study of the agrarian transition in the Scottish highlands</t>
+          <t>Agroholdings, Technology, And The PoliTicAl economy of russiAn AgriculTure</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>While there have been calls amongst the more ‘political’ or ‘radical’ agroecology and food sovereignty advocates for a break from capitalist food systems, conceptualisations of capitalism, and thus counter-capitalism, vary widely. The movements have largely presented small-scale producers and peasants as alternatives to industrial food systems, and have focused on reducing input dependency as a path towards autonomy of producers and the realisation of agroecological food systems. An alternative to this approach is presented here through applying Ellen M. Wood’s conceptualisation of capitalism as characterised by ‘market dependency’ to the case of the agrarian transition in the Scottish Highlands. This article demonstrates the specific ways in which market dependency, including for agricultural outputs, not just inputs, leads to a divergence from agroecological food systems. It argues that identifying ‘market dependency’ as a defining characteristic of capitalism could strengthen and refine the focus of agroecology and food sovereignty movements. © 2021 by the author. Licensee MDPI, Basel, Switzerland.</t>
+          <t>Research for this article was conducted with the support of the Swiss National Science Foundation, the Swedish Collegium for Advanced Studies, and the University of Notre Dame. This article details the rise of Russian agricultural corporations, known as the agroholdings. These companies have accumulated control of Russia’s most fertile land over the last 20 years and have become the main producers of agricultural commodities and processed food. They are also the driving force of a profound technological transformation of agriculture and food production during this time. A core claim of this article is that the technopolitics of twenty-first-century Russian agriculture made the meteoric rise of agroholdings possible. Technology was central to both the economic and political roles of these large, vertically integrated agricultural conglomerates. Agroholdings grew rapidly because they adopted cutting-edge agricultural technologies that maximized yields and economic efficiency. Agroholdings’ control of technologies earned them, in turn, the political support they needed to thrive in the state capitalist system of the Putin era. They were privileged allies of President Vladimir Putin’s government, which sought to enlist them for the political goals of strengthening domestic farming and food production and reducing Russia’s dependence on food imports. More broadly, the article suggests that a technopolitical lens recasts and improves our understanding of the political economy of post-Soviet Russia. Technopolitics reveals the role of both the state and corporate actors, of power and capital, in the construction of a new economic order and draws attention to how these processes shape post-Soviet byt. © Laboratorium: Russian Review of Social Research</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Achieving Food System Resilience Requires Challenging Dominant Land Property Regimes</t>
+          <t>Land grabs, farmworkers, and rural livelihoods in West Africa: some silences in the food sovereignty discourse</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Although evidence continues to indicate an urgent need to transition food systems away from industrialized monocultures and toward agroecological production, there is little sign of significant policy commitment toward food system transformation in global North geographies. The authors, a consortium of researchers studying the land-food nexus in global North geographies, argue that a key lock-in explaining the lack of reform arises from how most food system interventions work through dominant logics of property to achieve their goals of agroecological production. Doing so fails to recognize how land tenure systems, codified by law and performed by society, construct agricultural land use outcomes. In this perspective, the authors argue that achieving food system “resilience” requires urgent attention to the underlying property norms that drive land access regimes, especially where norms of property appear hegemonic. This paper first reviews research from political ecology, critical property law, and human geography to show how entrenched property relations in the global North frustrate the advancement of alternative models like food sovereignty and agroecology, and work to mediate acceptable forms of “sustainable agriculture.” Drawing on emerging cases of land tenure reform from the authors' collective experience working in Scotland, France, Australia, Canada, and Japan, we next observe how contesting dominant logics of property creates space to forge deep and equitable food system transformation. Equally, these cases demonstrate how powerful actors in the food system attempt to leverage legal and cultural norms of property to legitimize their control over the resources that drive agricultural production. Our formulation suggests that visions for food system “resilience” must embrace the reform of property relations as much as it does diversified farming practices. This work calls for a joint cultural and legal reimagination of our relation to land in places where property functions as an epistemic and apex entitlement. © Copyright © 2021 Calo, McKee, Perrin, Gasselin, McGreevy, Sippel, Desmarais, Shields, Baysse-Lainé, Magnan, Beingessner and Kobayashi.</t>
+          <t>The global land rush has spurred small, modest, and big anti-land grab mobilizations, notably the food sovereignty movement. The movement has been instrumental in representing the interests of small-scale family farmers whose livelihoods are threatened by capitalist control over land in the countryside. However, this dominant narrative tends to overlook or de-emphasize some important diversity within the peasantry. In West Africa, anti-land grab discourses emphasize family farming as a major collective action frame, focusing less on issues related to agricultural wage labour–farmworkers’ access to land, food, and decent working conditions. If food sovereignty is to fully realize its potential power as a counter-narrative to neoliberalism, and as a possible democratic alternative for working people with differentiated and at times competing socio-economic interests, then demands that adequately reflect the agrarian struggles of the rural working people have to be put onto the agenda and engaged better than it is now. © 2020 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1304,15 +1304,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Potential for food self-sufficiency improvements through indoor and vertical farming in the gulf cooperation council: Challenges and opportunities from the case of Kuwait</t>
+          <t>Practices of Food Sovereignty in Italy and England: Short Food Supply Chains and the Promise of De-Commodification</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>The countries of the Gulf Cooperation Council (GCC) are considered food secure due to their ability to import sufficient food to meet their populations’ demand, despite considerable environmental limitations to conventional agriculture. However, over-reliance on externally produced food leaves these countries vulnerable to food shortages during crises that disrupt international production and shipping. Advanced Controlled Environment Agriculture technology has the potential to improve food self-sufficiency by multiplying vegetable crop yields while optimizing efficiency of agricultural inputs and minimizing land requirements. This paper demonstrates how approximately 15 km2 of indoor farms or less than 0.1 km2 of vertical farms could reduce or eliminate the need to import six important vegetable crops in the State of Kuwait. If properly contextualized and supported by clear legislation and well-managed regulatory bodies, indoor agriculture initiatives may provide a pathway for GCC countries to reduce their dependence on imported foods and increase resilience to food supply disruption during disasters or conflict. This case study contextualizes the need for improved food self-sufficiency in light of vulnerabilities from regional and global threats, illuminates unique challenges faced by GCC countries considering adoption of the proposed technologies, and summarizes opportunities inherent in the current legal and policy framework. © 2021 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>Alternative food networks are organisations of consumers and food producers that oversee and promote the functioning of short food supply chains, with the aim of fostering a direct and local exchange between producers and consumers. New short-chain economic infrastructures provide food producers – especially small-scale farmers – with a whole new set of commercial opportunities, directed towards the construction of an alternative food economy. But how does value circulate within these innovative economic platforms? And what values are debated, negotiated and exchanged through these circuits? Employing the analytical lenses of de-commodification and embeddedness, this article discusses the modalities and outcomes of the processes of value-creation and value-appropriation that spring out of the direct exchange occurring between consumers and food producers in the alternative food economy. Based on empirical data collected through extensive qualitative field research in Italy and England, the article exposes the dynamics and limits of the on-going processes of de-commodification, proposing an analysis centred on the concept of ‘partial’ de-commodification. This conceptual tool is used to assess the differences that emerged between the Italian and English fields, and to provide conclusive remarks about the potential of place- and culture-specific configurations of practices to advance a transformation of the food system. © 2019 The Authors. Sociologia Ruralis © 2019 European Society for Rural Sociology.</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1340,15 +1340,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>The unwanted heritage of prefabricated wartime air raid shelters—underground space regeneration feasibility for urban agriculture to enhance neighbourhood community engagement</t>
+          <t>The spatial planning to implement sustainable agricultural land</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>The article deals with the problematic heritage associated with the system of Nazi German underground air raid shelters currently located within the Polish state, in the Baltic port city of Szczecin. The unwanted heritage has been inventoried, archival materials collected, and comparative analyses made of ways in which the underground space can be revitalised. An attempt was made to develop a typology of existing shelters and their locations. In order to overcome the negative associations with the warlike military space, positive system solutions were sought for the productive use of existing concrete structures located underground in central, easily accessible areas of the city districts. A process of upcycling the space was used to make ecologically efficient use of the material resources contained in the shelters. In order to activate the local community, a modular, hydroponic plant-growing system, adapted to the prefabricated spaces of the historical air raid shelters, was proposed. In this way, the central location of the underground structures within the boundaries of residential neighbourhoods was exploited. Such action strengthens the food sovereignty of the inhabitants, initiates bottom-up activity within the boundaries of the neighbourhood unit, and builds social ties in the spirit of a regenerative economy and positive sustainability. © 2021 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>Indonesia is an agricultural producing country; the agricultural sector becomes its main economic base. Empirically, most of Indonesians work in this sector as their livelihood. Article No. 33 Chapter (3) of Undang-undang Dasar 1945 (The 1945 Constitution of The Republic of Indonesia) states a role of the state in managing and regulating land. It is clearly declared that land, water and natural resources contained therein are owned by the state and used as much as possible for the prosperity of the people of Indonesia. Land conversion is usually related to the process of regional development, even it can be said that the land conversion is a consequence of the development. In fact, most of the land conversion shows an imbalance dominated by business owners who are alleged to be modern capitalists having Building Construction Permits (IMB) issued by the government. Based on Regulation of Government No. 1 of 2011 concerning Determination and Land Conversion of Sustainable Agricultural Land, it is a field of agricultural land determined to be consistently protected and developed to produce staple food for the autonomy, resilience and sovereignty of foods for the nation. © 2020 SERSC.</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Mainstreaming agricultural biodiversity in traditional production landscapes for sustainable development: The Indian scenario</t>
+          <t>Enforceability of decisions of the Agricultural Paying Agency in matters of direct payments</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mainstreaming biodiversity in production landscapes ensures conservation and sustainable use of agricultural biodiversity, the key objectives of the Convention on Biological Diversity (CBD) and the projects supported by the United Nations Environment Program (UNEP) Global Environment Facility (GEF). Mainstreaming integrates biodiversity in existing or new programs and policies, both cross‐sectoral and sector‐specific. The conventional model of agricultural production with limited diversity in production systems and use of high chemical input has taught us a valuable lesson as it is adversely impacting the environment, the essential ecosystem services, the soil health and the long term sustainability of our food systems. Using a qualitative participant observation approach, our study investigated four distinct traditional Indian production landscapes to gage (i) the farming communities’ response to institutional policies, programs and agricultural biodiversity‐related activities in traditional Indian production landscapes and (ii) opportunities and challenges for sustainable development in smallholder traditional Indian farming systems. Results indicate that the top‐down decision‐making regime is the least effective towards achieving sustainable development in traditional Indian farming landscapes and that farmers’ experiential knowledge on participatory biodiversity management, maintenance and use for sustainable development are of critical importance to India’s agriculture and economy. Reclaiming agriculture’s spiritual roots through organic farming and locally grown food emerged as key, including the need for designing and implementing a more sovereign food system. Revisiting traditional smallholder farming under the COVID‐19 pandemic and lessons learned for repurposing India’s agricultural policy are also highlighted. © 2020 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>Since its inception, the Common Agricultural Policy has been the largest among all common European policies. The main objective of the Common agricultural policy is food sovereignty in the European Union, stabilization of farmers' incomes and, at present, support for non-production functions of agriculture and environmental protection. Given the rising input prices and the time mismatch between supply and demand for agricultural products, the first pillar of the CAP has become a key tool for sustaining the desired competitiveness of agricultural products in the EU Member States. Direct payments have become an important tool for Slovak farmers, and therefore their effective implementation is essential for their continued existence or development. The aim of the paper was to point out the weak enforceability of direct payments to eligible users of agricultural land if there is a conflicting legal entitlement to provide a direct payment in accordance with §28 and §29 of Act no. 280/2017 Coll. and the resulting problems for eligible applicants. © 2020 by the author(s).</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1412,15 +1412,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Who is resilient in Africa's Green Revolution? Sustainable intensification and Climate Smart Agriculture in Rwanda</t>
+          <t>Towards a National Food Sovereignty Plan: Application of a new Decision Support System for food planning and governance</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Under the banner of a “New Green Revolution for Africa,” agricultural intensification programs aim to make smallholder agriculture more productive as well as "climate smart". As with Green Revolutions in Asia and Mexico, agricultural innovations (hybrid seeds, agronomic engineering, market linkages,and increased use of fertilizer and pesticides) are promoted as essential catalysts of agriculture-led economic growth. Intensification programs are now frequently linked to Climate Smart Agriculture (CSA), which attempts to build resilience and reduce greenhouse gas emissions while increasing crop yields. This article considers who and what is resilient in Africa's Green Revolution. We report on a multi-season study of smallholder food producers' experiences with Rwanda's Crop Intensification Program (CIP) and related policies that aim to commercialize subsistence agriculture while implementing CSA. We suggest that there are fundamental limits to the climate resilience afforded by CSA and development efforts rooted in Green Revolution thinking. Our findings illustrate that such efforts foreground technology and management adjustments in ways that have reduced smallholder resilience by inhibiting sovereignty over land use, decreasing livelihood flexibility, and constricting resource access. We put forth that rural development policies could better promote climate-resilient livelihoods through: 1) adaptive governance that enables smallholder land use decision-making; 2) support for smallholder food producers’ existing agro-ecological strategies of intensification; 3) participatory approaches to visualize and correct for inequalities in local processes of social-ecological resilence Such considerations are paramount for meeting the United Nations Sustainable Development Goals and building climate-resilient food systems. © 2020 The Authors</t>
+          <t>This paper develops a Decision Support System (DSS), for achieving Food Sovereignty Plans at different territorial levels. The DSS calculates the land requirement for producing the food needs of a local community, the land suitability for the involved crops, and the percentage of the food self-sufficiency achievable. The paper reports two case studies at different scales (Italy and Umbria region) for highlighting the strengths and the weaknesses of the DSS. Finally, the paper outlines the use of the developed DSS for enhancing participatory processes to achieve a National Food Sovereignty Plan. © 2019 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1448,15 +1448,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Agroholdings, Technology, And The PoliTicAl economy of russiAn AgriculTure</t>
+          <t>How do grassroot NGOs in rural Myanmar express their visions for the food system? Food security and food sovereignty as entangled narratives within NGO struggles and strategies</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Research for this article was conducted with the support of the Swiss National Science Foundation, the Swedish Collegium for Advanced Studies, and the University of Notre Dame. This article details the rise of Russian agricultural corporations, known as the agroholdings. These companies have accumulated control of Russia’s most fertile land over the last 20 years and have become the main producers of agricultural commodities and processed food. They are also the driving force of a profound technological transformation of agriculture and food production during this time. A core claim of this article is that the technopolitics of twenty-first-century Russian agriculture made the meteoric rise of agroholdings possible. Technology was central to both the economic and political roles of these large, vertically integrated agricultural conglomerates. Agroholdings grew rapidly because they adopted cutting-edge agricultural technologies that maximized yields and economic efficiency. Agroholdings’ control of technologies earned them, in turn, the political support they needed to thrive in the state capitalist system of the Putin era. They were privileged allies of President Vladimir Putin’s government, which sought to enlist them for the political goals of strengthening domestic farming and food production and reducing Russia’s dependence on food imports. More broadly, the article suggests that a technopolitical lens recasts and improves our understanding of the political economy of post-Soviet Russia. Technopolitics reveals the role of both the state and corporate actors, of power and capital, in the construction of a new economic order and draws attention to how these processes shape post-Soviet byt. © Laboratorium: Russian Review of Social Research</t>
+          <t>Recent research has promoted the idea that political struggles over food systems can be understood through the concepts of food security (the right to access food) and food sovereignty (the right to exercise control over food systems). These concepts emphasise different political priorities in the social relations of food: for the former, the promotion of decent work and the strengthening of the social safety net to enhance people's abilities to put food on their plates; for the latter, the defence of land, water and resource rights, to underpin capabilities for food own-provisioning. The question we pose in this paper is how these priorities are articulated by grassroots non-government organisations working at the frontline of global food poverty? Interviews with 22 representatives of food-related non-government organisations in Myanmar were used to elicit narratives about how they understood their challenges. The paper finds that narratives did not cohere exclusively to either the food security or food sovereignty concept, but blended ideas associated with the political priorities of both in complex and contradictory ways. These insights lend important firsthand evidence to the argument that supports a multi-dimensional framing of the politics of food that is inclusive of the diverse struggles highlighted by food security and food sovereignty concepts. © 2019 Victoria University of Wellington and John Wiley &amp; Sons Australia, Ltd</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1484,15 +1484,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Land grabs, farmworkers, and rural livelihoods in West Africa: some silences in the food sovereignty discourse</t>
+          <t>Land of plenty, land of misery: Synergetic resource grabbing in Mozambique</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>The global land rush has spurred small, modest, and big anti-land grab mobilizations, notably the food sovereignty movement. The movement has been instrumental in representing the interests of small-scale family farmers whose livelihoods are threatened by capitalist control over land in the countryside. However, this dominant narrative tends to overlook or de-emphasize some important diversity within the peasantry. In West Africa, anti-land grab discourses emphasize family farming as a major collective action frame, focusing less on issues related to agricultural wage labour–farmworkers’ access to land, food, and decent working conditions. If food sovereignty is to fully realize its potential power as a counter-narrative to neoliberalism, and as a possible democratic alternative for working people with differentiated and at times competing socio-economic interests, then demands that adequately reflect the agrarian struggles of the rural working people have to be put onto the agenda and engaged better than it is now. © 2020 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Global climate change policy enforcement has become the new driving force of resource grabbing in the context of the "scramble of resources" in Africa. Nevertheless, the environmental crisis should not be seen as an isolated phenomenon amid contemporary capitalism. On the contrary, a very distinct feature of the current wave of land grabs is the convergence of multiple crises, including food, energy/fuel, environmental, and financial. The Southern Mozambique District, Massingir, is an area with high potential regarding water sources and biodiversity. It recently became a host of a biofuel project, and also a huge block of land is being transformed into a conservation/tourism area; answering to many issues within capitalism's crisis, this area is an evidence of how synergetic resource grabbing can arise as a response to the convergence of multiple crises. Therefore, by analyzing the emerging politics of natural resources in Massingir District and the dynamics regarding the land-use change, changes in property relations, it is possible to understand how rural livelihoods are shaped. Risks related to food security and sovereignty, loss of control and access to resources, consistent narrowing down of the set of livelihood strategies, and inter-community conflicts over scarce resources are the main implications of such emerging climate-smart land politics. © 2019 by the authors.</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1520,15 +1520,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Practices of Food Sovereignty in Italy and England: Short Food Supply Chains and the Promise of De-Commodification</t>
+          <t>Agroecologies of displacement: a study of land access, dislocation, and migration in relation to sustainable food production in the Beach Flats Community Garden</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Alternative food networks are organisations of consumers and food producers that oversee and promote the functioning of short food supply chains, with the aim of fostering a direct and local exchange between producers and consumers. New short-chain economic infrastructures provide food producers – especially small-scale farmers – with a whole new set of commercial opportunities, directed towards the construction of an alternative food economy. But how does value circulate within these innovative economic platforms? And what values are debated, negotiated and exchanged through these circuits? Employing the analytical lenses of de-commodification and embeddedness, this article discusses the modalities and outcomes of the processes of value-creation and value-appropriation that spring out of the direct exchange occurring between consumers and food producers in the alternative food economy. Based on empirical data collected through extensive qualitative field research in Italy and England, the article exposes the dynamics and limits of the on-going processes of de-commodification, proposing an analysis centred on the concept of ‘partial’ de-commodification. This conceptual tool is used to assess the differences that emerged between the Italian and English fields, and to provide conclusive remarks about the potential of place- and culture-specific configurations of practices to advance a transformation of the food system. © 2019 The Authors. Sociologia Ruralis © 2019 European Society for Rural Sociology.</t>
+          <t>In this article, the Beach Flats Community Garden is used as a case study to theorize an “agroecologies of displacement.” We argue that farmers are increasingly less singularly place-based through involuntary displacement and that displacement and dispossession can shape agricultural practices in farming communities. We follow Cohen (2010), Kerssen and Brent (2017), and others in calling for the necessity to bring a historical and focused analysis of displacement, dispossession, and the dynamics of land under capitalist systems to our understanding of the articulations of food movements, in particular transformative agroecologies. © 2018, © 2018 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1556,15 +1556,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Human Development and Food Sovereignty: A Step Closer to Achieving Food Security in South Africa’s Rural Households</t>
+          <t>Food democracy as ‘Radical’ food sovereignty: Agrarian democracy and counter-hegemonic resistance to the neo-imperial food regime</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Food security strategies are determined by the prevailing realities within households and communities. Therefore, it is not surprising that in South Africa agricultural transformation is an important food security strategy. This article examines the role of human development and food sovereignty in fostering conditions that enable rural households to enhance their food security capabilities. Using an in-depth analysis of literature, national, regional and international instruments, this article takes its departure from the fact that subsistence agriculture is an effective strategy for improving household food needs when implemented within the broader human rights framework of human development. The results reveal that agriculture has the potential to increase household food security if appropriate agricultural technologies and productive resources such as land are made accessible to households. Further, for agriculture to attain optimal efficiency as a food security strategy, policies on agrarian transformation should be implemented within broader social development programmes. © The Author(s) 2019.</t>
+          <t>This article argues that a thoroughgoing and meaningful food democracy should entail something closely akin to ‘radical’ food sovereignty, a political programme which confronts the key social relational bases of capitalism. The latter comprise, in essence, ‘primitive accumulation,' the alienability or commodification of land and other fundamental use values, and market dependence. A thoroughgoing food democracy of this kind thus challenges the structural separation of the ‘economic’ and ‘political’ spheres within capitalism and the modern state (the state-capital nexus), a separation which enables purely political rights and obligations (‘political’ freedom or formal democracy) whilst simultaneously leaving unconstrained the economic powers of capital and their operation through market dependence (‘economic’ unfreedom or the lack of substantive democracy). We argue that much ‘food democracy’ discourse remains confined to this level of ‘political’ freedom and that, if food sovereignty is to be realized, this movement needs to address ‘economic’ unfreedom, in other words, to subvert capitalist social-property relations. We argue further that the political economy of food constitutes but a subset of these wider social relations, such that substantive food democracy is seen here to entail, like ‘radical’ food sovereignty, an abrogation of the three pillars upholding capitalism (primitive accumulation, absolute property rights, market dependence) as an intrinsic part of a wider and more integrated movement towards livelihood sovereignty. We argue here that the abrogation of these conditions upholding the state-capital nexus constitutes an essential part of the transformation of capitalist social-property relations towards common ‘ownership’?or, better, stewardship?of the means of livelihood, of which substantive food democracy is a key component. © 2019 by the author; licensee Cogitatio (Lisbon, Portugal).</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1592,15 +1592,15 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>The spatial planning to implement sustainable agricultural land</t>
+          <t>Could social farming be a strategy to support food sovereignty in Europe?</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Indonesia is an agricultural producing country; the agricultural sector becomes its main economic base. Empirically, most of Indonesians work in this sector as their livelihood. Article No. 33 Chapter (3) of Undang-undang Dasar 1945 (The 1945 Constitution of The Republic of Indonesia) states a role of the state in managing and regulating land. It is clearly declared that land, water and natural resources contained therein are owned by the state and used as much as possible for the prosperity of the people of Indonesia. Land conversion is usually related to the process of regional development, even it can be said that the land conversion is a consequence of the development. In fact, most of the land conversion shows an imbalance dominated by business owners who are alleged to be modern capitalists having Building Construction Permits (IMB) issued by the government. Based on Regulation of Government No. 1 of 2011 concerning Determination and Land Conversion of Sustainable Agricultural Land, it is a field of agricultural land determined to be consistently protected and developed to produce staple food for the autonomy, resilience and sovereignty of foods for the nation. © 2020 SERSC.</t>
+          <t>Food sovereignty (FS) aims to obtain value-added products in proximity agriculture (PA) in order to achieve food security in a country. Social farming (SF) can help to develop this PA as well as favoring integration of people at risk of social exclusion (RSE). The methodology includes a review of the literature, a survey of 161 SF projects in Catalonia, and ten selected in-depth interviews. “Social Return on Investment” (SROI) methodology is also applied to assess the efficiency of the projects analyzed. The results show the economic, social, and environmental viability of the majority of the SF projects which, also favored by FS and PA, allows the development of innovative experiences and sustainable forms of governance. SF has been carried out in different ways in European countries, although with the common aims of benefitting people at RSE, and using the natural environment and PA through projects basically promoted by Third Sector entities. Management of these projects is in the hands of foundations and non-profit companies making top-down decisions, and in cooperatives and associations, where decision-making is bottom-up. It can be concluded that the promotion of SF can favor PA, and therefore, FS in Europe. © 2019 by the authors. Licensee MDPI, Basel, Switzerland.</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1628,15 +1628,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Enforceability of decisions of the Agricultural Paying Agency in matters of direct payments</t>
+          <t>My land is my food: Exploring social function of large land deals using food security–land deals relation in five Eastern European countries</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Since its inception, the Common Agricultural Policy has been the largest among all common European policies. The main objective of the Common agricultural policy is food sovereignty in the European Union, stabilization of farmers' incomes and, at present, support for non-production functions of agriculture and environmental protection. Given the rising input prices and the time mismatch between supply and demand for agricultural products, the first pillar of the CAP has become a key tool for sustaining the desired competitiveness of agricultural products in the EU Member States. Direct payments have become an important tool for Slovak farmers, and therefore their effective implementation is essential for their continued existence or development. The aim of the paper was to point out the weak enforceability of direct payments to eligible users of agricultural land if there is a conflicting legal entitlement to provide a direct payment in accordance with §28 and §29 of Act no. 280/2017 Coll. and the resulting problems for eligible applicants. © 2020 by the author(s).</t>
+          <t>Food security provides a major topic for this study and the recurring point is food security–agricultural land relation. The analysis is grounded on the assumption that control over agricultural land means control over food. Effective control over land is one of the riskiest issues of large land deals. Permanent supply and sustainable access to quality food is influenced by structural socio-economic and political arrangements targeting agricultural land which often prevent individuals and entire communities from acquiring basic competencies and rights for their autonomy. The objective of the study is two folded: to investigate five Eastern European countries characteristics which are valued as determinants of food security–large land deals relation and to highlight the social utility of agricultural land property. Thus, the substantive theme of this study grows out of several observed streams of large land deals. In the first part, historical and economic influential factors connected to large land deals in Eastern Europe are approached, within the context of transition from centrally planned state economy to free market economy. The second part takes up the challenge to analyze the correlation between country characteristics that can impact on food security–land transaction relationship. Then, the paper goes on to introduce and explain, following Léon Duguit's theory of social utility, aspects about the social function of agricultural land ownership. Based on non-parametric tests, which included a set of 14 socio-economic variables, the results show, for example, a strong positive correlation between the size of closed land deals and both the size of country land area and of land under cereal production. The paper concludes with several proposals targeting fair land arrangements and practices that have the potential to transform themselves in building blocks for future policies dedicated to sustainable land management and food security. © 2019 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Towards a National Food Sovereignty Plan: Application of a new Decision Support System for food planning and governance</t>
+          <t>Beyond the “special period”: land reform, supermarkets and the prospects for peasant-driven food sovereignty in post-socialist Cuba (2008–2017)</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>This paper develops a Decision Support System (DSS), for achieving Food Sovereignty Plans at different territorial levels. The DSS calculates the land requirement for producing the food needs of a local community, the land suitability for the involved crops, and the percentage of the food self-sufficiency achievable. The paper reports two case studies at different scales (Italy and Umbria region) for highlighting the strengths and the weaknesses of the DSS. Finally, the paper outlines the use of the developed DSS for enhancing participatory processes to achieve a National Food Sovereignty Plan. © 2019 Elsevier Ltd</t>
+          <t>When Cuba’s trade-based food security strategy was threatened by the collapse of the socialist trading block in 1989–1991, the popular response of small and irregular farmers proved vital in providing a minimum food basket during the ensuing crisis. In 2008, a large-scale land reform sought to expand this development towards food sovereignty. We evaluate the reform impacts, finding that after an initial surge in 2009–2010, food production and land use have rebounded and stagnated at pre-reform levels. Peasant-led agricultural development is forestalled by inaccessibility of appropriate technologies, perceived land tenure insecurity, missing/deficient markets and competition from import-based supermarket chains. © 2019, © 2019 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1700,15 +1700,15 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>How do grassroot NGOs in rural Myanmar express their visions for the food system? Food security and food sovereignty as entangled narratives within NGO struggles and strategies</t>
+          <t>Social change for sustainable localised food sovereignty: Convergence between prosumers and ethical entrepreneurs*</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Recent research has promoted the idea that political struggles over food systems can be understood through the concepts of food security (the right to access food) and food sovereignty (the right to exercise control over food systems). These concepts emphasise different political priorities in the social relations of food: for the former, the promotion of decent work and the strengthening of the social safety net to enhance people's abilities to put food on their plates; for the latter, the defence of land, water and resource rights, to underpin capabilities for food own-provisioning. The question we pose in this paper is how these priorities are articulated by grassroots non-government organisations working at the frontline of global food poverty? Interviews with 22 representatives of food-related non-government organisations in Myanmar were used to elicit narratives about how they understood their challenges. The paper finds that narratives did not cohere exclusively to either the food security or food sovereignty concept, but blended ideas associated with the political priorities of both in complex and contradictory ways. These insights lend important firsthand evidence to the argument that supports a multi-dimensional framing of the politics of food that is inclusive of the diverse struggles highlighted by food security and food sovereignty concepts. © 2019 Victoria University of Wellington and John Wiley &amp; Sons Australia, Ltd</t>
+          <t>Some resourceful community-driven initiatives for local food production and retail have recently appeared in Luxembourg, where low organic agricultural rates are paradoxically paired with high consumer demands. This niche of social innovators combines agro-ecology with circular economy practices. Four cases of alternative food networks are presented here – studied with qualitative interviews and participant observation. One was established in the 1980s and has about 200 employees, partly linked to social assistance. The more recent and smaller initiatives are characterised by cooperative governance, a community-supported agricultural outlook, hands-on workshops and time banks, all enabled by social media. These initiatives are more radical in their agro-ecological or permaculture practices, focusing on regenerative land use without relying on imports and fostering the integration of consumers with varying degrees of prosumer involvement. This politicised step goes further than mere (and possibly industrialised) organic production. It represents a cultural shift in the food system by attracting media and policy interest, diverting attention away from individuals and focusing instead on the collective efforts that are necessary to build a more resilient food system. Copyright © FrancoAngeli</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1736,15 +1736,15 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Land of plenty, land of misery: Synergetic resource grabbing in Mozambique</t>
+          <t>Drafting a Law, Dissolving a Proposal: Food Sovereignty and the State in Ecuador</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Global climate change policy enforcement has become the new driving force of resource grabbing in the context of the "scramble of resources" in Africa. Nevertheless, the environmental crisis should not be seen as an isolated phenomenon amid contemporary capitalism. On the contrary, a very distinct feature of the current wave of land grabs is the convergence of multiple crises, including food, energy/fuel, environmental, and financial. The Southern Mozambique District, Massingir, is an area with high potential regarding water sources and biodiversity. It recently became a host of a biofuel project, and also a huge block of land is being transformed into a conservation/tourism area; answering to many issues within capitalism's crisis, this area is an evidence of how synergetic resource grabbing can arise as a response to the convergence of multiple crises. Therefore, by analyzing the emerging politics of natural resources in Massingir District and the dynamics regarding the land-use change, changes in property relations, it is possible to understand how rural livelihoods are shaped. Risks related to food security and sovereignty, loss of control and access to resources, consistent narrowing down of the set of livelihood strategies, and inter-community conflicts over scarce resources are the main implications of such emerging climate-smart land politics. © 2019 by the authors.</t>
+          <t>Upon being sworn in as the 56th Ecuadorian President on 15 January 2007, Rafael Correa immediately convened, through a referendum, a National Constituent Assembly to draw up a new constitution. One of the concerns of the assembly was to translate into law a food-sovereignty proposal put forward by social movements. In the process of becoming law, the food-sovereignty proposal was much changed. How is it possible that the final version, the law, so far fell short of the food-sovereignty movement’s original proposal? Addressing this question implies a reflection on the role of the state. We argue that (a) instead of strengthening the role of peasants, their participation was reduced to a bureaucratic structure (a ‘council’) that lacked the capacity to define or implement policies, and (b) the issue of the social function of land and land-reform was removed. I therefore conclude that the social movements’ proposal for food sovereignty was stripped of its essentials. © 2018 SAGE Publications.</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1772,15 +1772,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Agroecologies of displacement: a study of land access, dislocation, and migration in relation to sustainable food production in the Beach Flats Community Garden</t>
+          <t>Contested fields: an analysis of anti-GMO politics on Hawai’i Island</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>In this article, the Beach Flats Community Garden is used as a case study to theorize an “agroecologies of displacement.” We argue that farmers are increasingly less singularly place-based through involuntary displacement and that displacement and dispossession can shape agricultural practices in farming communities. We follow Cohen (2010), Kerssen and Brent (2017), and others in calling for the necessity to bring a historical and focused analysis of displacement, dispossession, and the dynamics of land under capitalist systems to our understanding of the articulations of food movements, in particular transformative agroecologies. © 2018, © 2018 Taylor &amp; Francis.</t>
+          <t>This paper details the evolution of activism against genetically modified organisms on the Big Island of Hawai’i. It offers an explanation for the ability of rural residents on the Big Island to pass anti-GMO legislation while other states and communities have tried and failed. I argue that the Big Island’s recent anti-GMO legislative success is due to the articulation of interests and actions between settlers to Hawai’i and Native Hawaiian community members seeking to protect Native Hawaiian rights. Tracing the history of the anti-GMO movement on Big Island highlights the unique circumstances that facilitated the passage of this bill, and is also significant for making sense of the potential future trajectories of anti-GMO-related food sovereignty movements elsewhere. © 2017, Springer Science+Business Media B.V.</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1808,15 +1808,15 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Food democracy as ‘Radical’ food sovereignty: Agrarian democracy and counter-hegemonic resistance to the neo-imperial food regime</t>
+          <t>What role for trade in food sovereignty? Insights from a small island archipelago</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>This article argues that a thoroughgoing and meaningful food democracy should entail something closely akin to ‘radical’ food sovereignty, a political programme which confronts the key social relational bases of capitalism. The latter comprise, in essence, ‘primitive accumulation,' the alienability or commodification of land and other fundamental use values, and market dependence. A thoroughgoing food democracy of this kind thus challenges the structural separation of the ‘economic’ and ‘political’ spheres within capitalism and the modern state (the state-capital nexus), a separation which enables purely political rights and obligations (‘political’ freedom or formal democracy) whilst simultaneously leaving unconstrained the economic powers of capital and their operation through market dependence (‘economic’ unfreedom or the lack of substantive democracy). We argue that much ‘food democracy’ discourse remains confined to this level of ‘political’ freedom and that, if food sovereignty is to be realized, this movement needs to address ‘economic’ unfreedom, in other words, to subvert capitalist social-property relations. We argue further that the political economy of food constitutes but a subset of these wider social relations, such that substantive food democracy is seen here to entail, like ‘radical’ food sovereignty, an abrogation of the three pillars upholding capitalism (primitive accumulation, absolute property rights, market dependence) as an intrinsic part of a wider and more integrated movement towards livelihood sovereignty. We argue here that the abrogation of these conditions upholding the state-capital nexus constitutes an essential part of the transformation of capitalist social-property relations towards common ‘ownership’?or, better, stewardship?of the means of livelihood, of which substantive food democracy is a key component. © 2019 by the author; licensee Cogitatio (Lisbon, Portugal).</t>
+          <t>The food sovereignty movement has been gathering momentum in advocating the rights of individuals and nations to control their own food systems. Alongside this is a mounting critical engagement regarding its privileging of local food production as the means through which to achieve this goal. Adopting a place-based approach, we explore the foodways of diverse communities across a small island archipelago–the Turks and Caicos Islands in the West Indies. Based on interviews and focus groups, we unpack narratives relating to islanders’ changing food practices and aspirations. These are understood as two competing but inter-related themes of disruption and reification of current practices shaped by wider food regimes in interaction with ecological challenges. Given that conditions of historic dependency implicate the islands in a myriad of dependent trade relationships, we argue that small island economies offer, and require, unique cases for understanding how sovereign conditions for trade might be developed in line with a food sovereignty framework. We underline the importance of an inter-disciplinary focus for bringing forth a nuanced understanding of what might be required to shape more sustainable, sovereign and secure food futures. Doing so is necessarily rooted in an appreciation of islanders’ accounts of social, economic, political and ecological change over time. © 2017 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1844,15 +1844,15 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Could social farming be a strategy to support food sovereignty in Europe?</t>
+          <t>Complex systems, agroecological matrices, and management of forest resources: An example of an application in Los Tuxtlas, Veracruz, Mexico</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Food sovereignty (FS) aims to obtain value-added products in proximity agriculture (PA) in order to achieve food security in a country. Social farming (SF) can help to develop this PA as well as favoring integration of people at risk of social exclusion (RSE). The methodology includes a review of the literature, a survey of 161 SF projects in Catalonia, and ten selected in-depth interviews. “Social Return on Investment” (SROI) methodology is also applied to assess the efficiency of the projects analyzed. The results show the economic, social, and environmental viability of the majority of the SF projects which, also favored by FS and PA, allows the development of innovative experiences and sustainable forms of governance. SF has been carried out in different ways in European countries, although with the common aims of benefitting people at RSE, and using the natural environment and PA through projects basically promoted by Third Sector entities. Management of these projects is in the hands of foundations and non-profit companies making top-down decisions, and in cooperatives and associations, where decision-making is bottom-up. It can be concluded that the promotion of SF can favor PA, and therefore, FS in Europe. © 2019 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+          <t>Today humanity faces several complex problems, two of which are global warming and the loss of biological diversity. An agroecological matrix approach, conceives the territory as patches of natural and cultivated vegetation, interconnected to maintain watershed integrity. Many ethnic groups maintain a high biological heterogeneity as in the case of the agrological matrix. This study analyzed features and trends in a specific agroecological matrix, integrating local and scientific knowledge with environmental and social information, as a complex system. For the last 15 years we studied agroecological spaces used by the Ntaj'uy (Zoque-Popoluca) people in Los Tuxtlas, Veracruz, Mexico. Participatory methods were used to understand social interactions and land management decisions. Ecology field methods allowed us to assess soil loss, litter production, water quality, and vegetation structure. Soil erosion, vegetation fragmentation and social marginalization are the most important problems in the region; the tropical sub-evergreen forest has decreased by about 60%, the deciduous forest is down by 80%, and cultivated pastures have increased over 400%. Coffee and milpa agroecosystems could be improved, through product diversification, along with interconnectivity among vegetation patches, to prevent environmental degradation, and improve conditions to reach food sovereignty and income diversification, in a context of Ntaj'uy self-determination in their territories. © 2018 by the authors.</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1880,15 +1880,15 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>My land is my food: Exploring social function of large land deals using food security–land deals relation in five Eastern European countries</t>
+          <t>Greenhouse Agriculture in the Icelandic Food System</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Food security provides a major topic for this study and the recurring point is food security–agricultural land relation. The analysis is grounded on the assumption that control over agricultural land means control over food. Effective control over land is one of the riskiest issues of large land deals. Permanent supply and sustainable access to quality food is influenced by structural socio-economic and political arrangements targeting agricultural land which often prevent individuals and entire communities from acquiring basic competencies and rights for their autonomy. The objective of the study is two folded: to investigate five Eastern European countries characteristics which are valued as determinants of food security–large land deals relation and to highlight the social utility of agricultural land property. Thus, the substantive theme of this study grows out of several observed streams of large land deals. In the first part, historical and economic influential factors connected to large land deals in Eastern Europe are approached, within the context of transition from centrally planned state economy to free market economy. The second part takes up the challenge to analyze the correlation between country characteristics that can impact on food security–land transaction relationship. Then, the paper goes on to introduce and explain, following Léon Duguit's theory of social utility, aspects about the social function of agricultural land ownership. Based on non-parametric tests, which included a set of 14 socio-economic variables, the results show, for example, a strong positive correlation between the size of closed land deals and both the size of country land area and of land under cereal production. The paper concludes with several proposals targeting fair land arrangements and practices that have the potential to transform themselves in building blocks for future policies dedicated to sustainable land management and food security. © 2019 Elsevier Ltd</t>
+          <t>Greenhouses are a frequent feature on the Icelandic rural landscape and an integral part of Iceland's food system. Iceland's reserves of geothermal energy present an opportunity to extend an otherwise short growing season. This promotes sustainability, increases food security, and benefits consumers. This article examines the relative strengths of Iceland's greenhouse sector - using a combination of statistics, observations, and interviews to understand the resource demands of greenhouse agriculture, how well greenhouses can allay some food insecurity and provide local foods. It ends with an examination of how the reduction of subsidies used to keep greenhouse agriculture going, has had an effect and forces the question of whether losing much of Iceland's agricultural sector and locally sourced food is worth the social and political costs. © 2019 Gina M. Butrico, David H. Kaplan, published by Sciendo 2019.</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1916,15 +1916,15 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Beyond the “special period”: land reform, supermarkets and the prospects for peasant-driven food sovereignty in post-socialist Cuba (2008–2017)</t>
+          <t>Brazil's landless movement and rights ‘from below’</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>When Cuba’s trade-based food security strategy was threatened by the collapse of the socialist trading block in 1989–1991, the popular response of small and irregular farmers proved vital in providing a minimum food basket during the ensuing crisis. In 2008, a large-scale land reform sought to expand this development towards food sovereignty. We evaluate the reform impacts, finding that after an initial surge in 2009–2010, food production and land use have rebounded and stagnated at pre-reform levels. Peasant-led agricultural development is forestalled by inaccessibility of appropriate technologies, perceived land tenure insecurity, missing/deficient markets and competition from import-based supermarket chains. © 2019, © 2019 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Recent literature has recognised the value of food sovereignty and human rights frameworks in agrarian struggles. Relatively little attention has gone toward how agrarian movements develop and apply their own rights discourses to further demands for social justice. This study considers Brazil's landless movement (MST) between 1984 and 1995, revealing three distinct rights discourses that recruited and mobilised protest by linking local issues to the movement's broader political project. The findings illustrate the value of rights, frames and ideology as analytical tools, shedding light on how movement-generated rights emerge through processes of reflexivity and in response to dynamic social-political contexts. © 2018 Elsevier Ltd</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1952,15 +1952,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Can the state take agroecology to scale? Public policy experiences in agroecological territorialization from Latin America</t>
+          <t>Black Farmers in the USA and Michigan: Longevity, Empowerment, and Food Sovereignty</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>In this article we use a food sovereignty frame to analyze the role of the State in favoring agroecological scaling, particularly in Cuba and in the Latin American countries that elected leftist governments in the first years of the 21st century and currently face an upsurge of right-wing political forces. As with social movement participation in international governance structures, at the national level social movements face risks when they allow themselves to become absorbed in collaborations with the State in order to build public policy for taking agroecology to scale. By participating in the institutionalization of agroecology, movements become part of the established rules of the game, having to move within limits defined by a system that exists to preserve the interests of the dominant class. On the other hand, by boycotting the arena of governance, agroecological movements allow resurgent political and economic elites to grab land, territories and resources needed for agroecological food systems to ever become a global substitute for industrial agriculture. At the heart of the matter is the political character of agroecology: shall we continue betting on reform, in times of (counter) revolution?. © 2019, © 2019 Taylor &amp; Francis Group, LLC.</t>
+          <t>Blacks have been farming in the USA for about four centuries and in Michigan since the 1830s. Yet, for blacks, owning and retaining farmland has been a continuous challenge. This historical analysis uses environmental justice and food sovereignty frameworks to examine the farming experiences of blacks in the USA generally, and more specifically in Michigan. It analyzes land loss, the precipitous decline in the number of black farmers, and the strategies that blacks have used to counteract these phenomena. The paper shows that the ability of blacks to own and operate farms has been negatively impacted by lack of access to credit, segregation, relegation to marginal and hazard-prone land, natural disasters, organized opposition to black land ownership, and systemic discrimination. The paper examines the use of cooperatives and other community-based organizations to help blacks respond to discrimination and environmental inequalities. The paper assesses how the farming experiences of blacks in Michigan compare to the experiences of black farmers elsewhere. It also explores the connections between Michigan’s black farmers, southern black farmer cooperatives, and Detroit’s black consumers. © 2018, The Author(s).</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Social change for sustainable localised food sovereignty: Convergence between prosumers and ethical entrepreneurs*</t>
+          <t>A food regime’s perspective on palestine: Neoliberalism and the question of land and food sovereignty within the context of occupation</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1996,7 +1996,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Some resourceful community-driven initiatives for local food production and retail have recently appeared in Luxembourg, where low organic agricultural rates are paradoxically paired with high consumer demands. This niche of social innovators combines agro-ecology with circular economy practices. Four cases of alternative food networks are presented here – studied with qualitative interviews and participant observation. One was established in the 1980s and has about 200 employees, partly linked to social assistance. The more recent and smaller initiatives are characterised by cooperative governance, a community-supported agricultural outlook, hands-on workshops and time banks, all enabled by social media. These initiatives are more radical in their agro-ecological or permaculture practices, focusing on regenerative land use without relying on imports and fostering the integration of consumers with varying degrees of prosumer involvement. This politicised step goes further than mere (and possibly industrialised) organic production. It represents a cultural shift in the food system by attracting media and policy interest, diverting attention away from individuals and focusing instead on the collective efforts that are necessary to build a more resilient food system. Copyright © FrancoAngeli</t>
+          <t>The question of land and its strategic, socio-political and agricultural relevance within the Israeli-Palestinian conflict must be understood against the background of the dominant position of Israel as occupational power, heavily affecting the access to, and the control over natural resources. The subjects discussed within this article are intrinsically linked via the usage of the food regime approach as analytical tool, and the article’s specific focus on land. An attempt is made to grasp the neoliberal restructuring of Palestine and its developments in the agricultural sector, paying particular attention to land grabbing. Neoliberalism aided the institutionalising and normalising of accumulation by dispossession in the occupied Palestinian territories (oPt), these being identified as a key feature of the corporate food regime, and leading to the marginalisation of rural communities and to depeasantisation. The crises of the food regime spurred food sovereignty movements all around the globe. While analysing the political demands and approaches of the concept of food sovereignty centered around natural resources, this article also explores why the concept offers various ideas for an alternative development in Palestine. This paper tries to show how specific dynamics observed by the food regime analytics can be helpful in contextualising developments within the oPt – ranging from neoliberal restructuring to the emergence of food sovereignty. © 2018 Mattersburger Kreis fur Entwicklungspolitik. All rights reserved.</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -2024,15 +2024,15 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Drafting a Law, Dissolving a Proposal: Food Sovereignty and the State in Ecuador</t>
+          <t>Framing the food poverty question: Policy choices and livelihood consequences in Indonesia</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Upon being sworn in as the 56th Ecuadorian President on 15 January 2007, Rafael Correa immediately convened, through a referendum, a National Constituent Assembly to draw up a new constitution. One of the concerns of the assembly was to translate into law a food-sovereignty proposal put forward by social movements. In the process of becoming law, the food-sovereignty proposal was much changed. How is it possible that the final version, the law, so far fell short of the food-sovereignty movement’s original proposal? Addressing this question implies a reflection on the role of the state. We argue that (a) instead of strengthening the role of peasants, their participation was reduced to a bureaucratic structure (a ‘council’) that lacked the capacity to define or implement policies, and (b) the issue of the social function of land and land-reform was removed. I therefore conclude that the social movements’ proposal for food sovereignty was stripped of its essentials. © 2018 SAGE Publications.</t>
+          <t>Since 2008, amidst fears of vulnerabilities related to climate change, price volatility and global food shortages, an increasingly conflicted policy field has emerged in the global south. Competing policy narratives provide for rival policy orientations with respect to food policy, land rights, the environment and justice. This paper considers the implications of different choices associated with these rival concepts in one case – that of Indonesian Kalimantan. The paper shows how predominant framings of ‘food sovereignty’, ‘food self-sufficiency’ and ‘food security’ support scalar strategies that empower particular actors and agendas. While narratives focused on national food sovereignty support large-scale food estates in ways that fit a particular politics of food, they overlook the specific livelihood challenges facing rural populations and the problems of food poverty in marginal landscapes. Localist narratives of ‘food sovereignty’ focus on enhancing smallholder access and control over productive resources and diversification in ways that are better suited to the geography of production, but they are yet to address the political anxieties presented by food questions at the national level. If policy choices are to deal with the underlying issues, then the alternative values, guiding assumptions and scalar strategies encompassed by rival narratives need to be appraised and reconciled with the specific livelihood challenges of rural people and the need to secure an inclusive and equitable society in a changing global environment. © 2017</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -2060,15 +2060,15 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Contested fields: an analysis of anti-GMO politics on Hawai’i Island</t>
+          <t>Agroecology in Uruguay</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>This paper details the evolution of activism against genetically modified organisms on the Big Island of Hawai’i. It offers an explanation for the ability of rural residents on the Big Island to pass anti-GMO legislation while other states and communities have tried and failed. I argue that the Big Island’s recent anti-GMO legislative success is due to the articulation of interests and actions between settlers to Hawai’i and Native Hawaiian community members seeking to protect Native Hawaiian rights. Tracing the history of the anti-GMO movement on Big Island highlights the unique circumstances that facilitated the passage of this bill, and is also significant for making sense of the potential future trajectories of anti-GMO-related food sovereignty movements elsewhere. © 2017, Springer Science+Business Media B.V.</t>
+          <t>From its origins, agroecology in Uruguay has been considered as a critique of the dominant industrial agriculture model and linked to the development of alternative thinking from multiple actors. It aims to strengthen the ecological processes in agricultural systems while discussing the phenomena of concentration, alienation, and access to land, along with the problems of family agriculture and food sovereignty. Against the deepening of the industrialized model of agriculture, different actors drive the development of a National Agroecology Plan. An agroecological transition process is proposed by building sustainable development options, which arises from the agrarian and extends to the whole society. © 2017 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2096,15 +2096,15 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>What role for trade in food sovereignty? Insights from a small island archipelago</t>
+          <t>The Developmental State and Food Sovereignty in Tanzania</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>The food sovereignty movement has been gathering momentum in advocating the rights of individuals and nations to control their own food systems. Alongside this is a mounting critical engagement regarding its privileging of local food production as the means through which to achieve this goal. Adopting a place-based approach, we explore the foodways of diverse communities across a small island archipelago–the Turks and Caicos Islands in the West Indies. Based on interviews and focus groups, we unpack narratives relating to islanders’ changing food practices and aspirations. These are understood as two competing but inter-related themes of disruption and reification of current practices shaped by wider food regimes in interaction with ecological challenges. Given that conditions of historic dependency implicate the islands in a myriad of dependent trade relationships, we argue that small island economies offer, and require, unique cases for understanding how sovereign conditions for trade might be developed in line with a food sovereignty framework. We underline the importance of an inter-disciplinary focus for bringing forth a nuanced understanding of what might be required to shape more sustainable, sovereign and secure food futures. Doing so is necessarily rooted in an appreciation of islanders’ accounts of social, economic, political and ecological change over time. © 2017 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+          <t>Tanzania has been experiencing different periods of food shortages mainly because of insufficient food production. While the country has an undisputable potential for food production, the state and its development partners, such as the World Bank, believe that the unsustainable peasant food production is the main cause of the food crisis. As a panacea to the food crisis, a call for de-peasantization in favour of commercial large-scale farming, is advocated. Inspired by the work of Sam Moyo, this article argues that achieving food self-sufficiency should begin with improving peasant agriculture instead of dispossessing peasants of their land. The principles of food sovereignty must be adopted and the orientation of the state must be developmental. The state must play an activist role in investing heavily in agricultural-related projects. © 2017 SAGE Publications.</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -2132,15 +2132,15 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Complex systems, agroecological matrices, and management of forest resources: An example of an application in Los Tuxtlas, Veracruz, Mexico</t>
+          <t>Investor ownership or social investment? Changing farmland ownership in Saskatchewan, Canada</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Today humanity faces several complex problems, two of which are global warming and the loss of biological diversity. An agroecological matrix approach, conceives the territory as patches of natural and cultivated vegetation, interconnected to maintain watershed integrity. Many ethnic groups maintain a high biological heterogeneity as in the case of the agrological matrix. This study analyzed features and trends in a specific agroecological matrix, integrating local and scientific knowledge with environmental and social information, as a complex system. For the last 15 years we studied agroecological spaces used by the Ntaj'uy (Zoque-Popoluca) people in Los Tuxtlas, Veracruz, Mexico. Participatory methods were used to understand social interactions and land management decisions. Ecology field methods allowed us to assess soil loss, litter production, water quality, and vegetation structure. Soil erosion, vegetation fragmentation and social marginalization are the most important problems in the region; the tropical sub-evergreen forest has decreased by about 60%, the deciduous forest is down by 80%, and cultivated pastures have increased over 400%. Coffee and milpa agroecosystems could be improved, through product diversification, along with interconnectivity among vegetation patches, to prevent environmental degradation, and improve conditions to reach food sovereignty and income diversification, in a context of Ntaj'uy self-determination in their territories. © 2018 by the authors.</t>
+          <t>There is growing recognition that land grabbing is a global phenomenon. In Canada, investors are particularly interested in Saskatchewan farmland, the province where 40 % of country’s agricultural land is situated. This article examines how the changing political, economic, and legal context under neoliberalism has shaped patterns of farmland ownership in Saskatchewan, between 2002 and 2014. Our research indicates that over this time, the amount of farmland owned by investors increased 16-fold. Also, the concentration of farmland ownership is on the rise, with the share of farmland owned by the largest four private owners increasing six-fold. Our methodology addresses some of the criticisms raised in the land grabbing literature. By using land titles data, we identified farmland investors and determined very precisely their landholdings thus allowing us to provide a fine-grained analysis of the actual patterns of farmland ownership. Although the article analyzes changes to farmland ownership in a specific historical, cultural and legislative context, it serves as the basis for a broader discussion of the values and priorities that land ownership policies reflect. Namely, we contrast an ‘open for business’ approach that prioritizes financial investment to one based on a land sovereignty approach that prioritizes social investment. The latter has greater potential if the aim is ecological sustainability and food sovereignty. © 2016, Springer Science+Business Media Dordrecht.</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -2168,15 +2168,15 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Greenhouse Agriculture in the Icelandic Food System</t>
+          <t>Codesigning a resilient food system</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Greenhouses are a frequent feature on the Icelandic rural landscape and an integral part of Iceland's food system. Iceland's reserves of geothermal energy present an opportunity to extend an otherwise short growing season. This promotes sustainability, increases food security, and benefits consumers. This article examines the relative strengths of Iceland's greenhouse sector - using a combination of statistics, observations, and interviews to understand the resource demands of greenhouse agriculture, how well greenhouses can allay some food insecurity and provide local foods. It ends with an examination of how the reduction of subsidies used to keep greenhouse agriculture going, has had an effect and forces the question of whether losing much of Iceland's agricultural sector and locally sourced food is worth the social and political costs. © 2019 Gina M. Butrico, David H. Kaplan, published by Sciendo 2019.</t>
+          <t>Global changes, especially the progression of climate change, create a plethora of adaptation needs for social-ecological systems. With increasing uncertainty, more resilient food systems that are able to adapt and shape their operations in response to emerging challenges are required. Most of the research on this subject has been focused on developing countries; however, developed countries also face increasing environmental, economic, and social pressures. Because food systems are complex and involve multiple actors, using codesign might be the most productive way to develop desirable system characteristics. For this study, we engaged food system actors in a scenario-planning exercise to identify means of building more resilient food systems. In particular, the actors focused on determinants of adaptive capacity in developed countries, with Finland as a case study. The brainstorming session followed by a two-round Delphi study raised three main characteristics for effective food system resilience, namely, energy and nutrient sovereignty, transparency and dialogue in the food chain, and continuous innovativeness and evidence-based learning. In addition, policy interventions were found instrumental for supporting such food system resilience. The main actor-specific determinants of adaptive capacity identified included the farmers’ utilization of agri-technology and expertise; energy and logistic efficiency of the input and processing industry; and for retail, communication to build consumer trust and environmental awareness, and effective use of information and communication technology. Of the food system actors, farmers and the processing industry were perceived to be the closest to reaching the limits of their adaptive capacities. The use of adaptive capacity as a proxy seemed to concretize food system resilience effectively. Our study suggests that the resilience approach generates new perspectives that can guide actors in developing food systems that are adaptive in uncertainty. © 2016 by the author(s).</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Brazil's landless movement and rights ‘from below’</t>
+          <t>The Prism of Expanding Peasants' Rights: A Critical Investigation of Diverse Frames Applied to la Vía Campesina's Human Rights Engagements</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2212,7 +2212,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Recent literature has recognised the value of food sovereignty and human rights frameworks in agrarian struggles. Relatively little attention has gone toward how agrarian movements develop and apply their own rights discourses to further demands for social justice. This study considers Brazil's landless movement (MST) between 1984 and 1995, revealing three distinct rights discourses that recruited and mobilised protest by linking local issues to the movement's broader political project. The findings illustrate the value of rights, frames and ideology as analytical tools, shedding light on how movement-generated rights emerge through processes of reflexivity and in response to dynamic social-political contexts. © 2018 Elsevier Ltd</t>
+          <t>Since its foundation in 1993, La Vía Campesina has surged to the forefront of the global alter-globalization movement of movements, mobilizing human rights discourse to promote small-scale sustainable agriculture as a key component of social justice, equity, dignity, and autonomy everywhere. This literature review argues that food sovereignty - La Vía Campesina's best known, rights-based innovation - inflects a range of other interrelated but distinct frames that variously foreground peasants' rights, "peasantness," land, cultural recognition, and collective emancipation, prefiguring an array of prospects for the expansion of human rights to peasants and other marginalized populations confronting the failures of capitalist globalization. © 2018 Koninklijke Brill NV, Leiden, The Netherlands.</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2240,15 +2240,15 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Black Farmers in the USA and Michigan: Longevity, Empowerment, and Food Sovereignty</t>
+          <t>Concern over palm oil expansion</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Blacks have been farming in the USA for about four centuries and in Michigan since the 1830s. Yet, for blacks, owning and retaining farmland has been a continuous challenge. This historical analysis uses environmental justice and food sovereignty frameworks to examine the farming experiences of blacks in the USA generally, and more specifically in Michigan. It analyzes land loss, the precipitous decline in the number of black farmers, and the strategies that blacks have used to counteract these phenomena. The paper shows that the ability of blacks to own and operate farms has been negatively impacted by lack of access to credit, segregation, relegation to marginal and hazard-prone land, natural disasters, organized opposition to black land ownership, and systemic discrimination. The paper examines the use of cooperatives and other community-based organizations to help blacks respond to discrimination and environmental inequalities. The paper assesses how the farming experiences of blacks in Michigan compare to the experiences of black farmers elsewhere. It also explores the connections between Michigan’s black farmers, southern black farmer cooperatives, and Detroit’s black consumers. © 2018, The Author(s).</t>
+          <t>A coalition of organizations and representatives of civil society from across Asia, Africa, and Latin America expressed their concerns about the impact of Europe's biofuels policies, particularly on escalating demand for palm oil, implying an unsustainable global land footprint. Around 90% of the world's palm oil is grown in Indonesia and Malaysia. The growth of palm oil plantations in Latin America and Africa indicated that it has led to land grabbing and conflict, along with loss of clean water supplies, food sovereignty and cultural integrity. The coalition urge all member states of the European Parliament to vote for biofuels policy reforms that will ensure the protection of people and environment from the affected regions from the impacts of palm oil expansion.</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2276,15 +2276,15 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>A food regime’s perspective on palestine: Neoliberalism and the question of land and food sovereignty within the context of occupation</t>
+          <t>Biodiversity of Soil Mesofauna Associated with the Design of Home Gardens in Mapuche Agroecosystems—Case Study in the Araucanía Region</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>The question of land and its strategic, socio-political and agricultural relevance within the Israeli-Palestinian conflict must be understood against the background of the dominant position of Israel as occupational power, heavily affecting the access to, and the control over natural resources. The subjects discussed within this article are intrinsically linked via the usage of the food regime approach as analytical tool, and the article’s specific focus on land. An attempt is made to grasp the neoliberal restructuring of Palestine and its developments in the agricultural sector, paying particular attention to land grabbing. Neoliberalism aided the institutionalising and normalising of accumulation by dispossession in the occupied Palestinian territories (oPt), these being identified as a key feature of the corporate food regime, and leading to the marginalisation of rural communities and to depeasantisation. The crises of the food regime spurred food sovereignty movements all around the globe. While analysing the political demands and approaches of the concept of food sovereignty centered around natural resources, this article also explores why the concept offers various ideas for an alternative development in Palestine. This paper tries to show how specific dynamics observed by the food regime analytics can be helpful in contextualising developments within the oPt – ranging from neoliberal restructuring to the emergence of food sovereignty. © 2018 Mattersburger Kreis fur Entwicklungspolitik. All rights reserved.</t>
+          <t>Home gardens play a transcendental role in food sovereignty, for which the management of habitats above ground and underground are complementary strategies. This study aims to compare the biodiversity of soil mesofauna groups between agroecosystems with a conventional and an agroecological design. Through the combination of quantitative (plant inventories) and qualitative (mobile interviewing and talking maps) techniques, the units of this study was described. Soil samples were mounted in a Berlesse–Tullgren system, and the abundance, richness, diversity, and equality of soil organisms were determined. The relationships between functional groups were compared taxonomically and biocenotically. The results indicated higher equality in the conventional home garden, while the communities studied present a medium taxocenotic similarity, without great biocenotic differences. The diversity and richness of taxa, as well as the abundance in each group identified, were higher in the agroecological garden, which had more medicinal and aromatic plants. © 2023 by the authors.</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2312,15 +2312,15 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Framing the food poverty question: Policy choices and livelihood consequences in Indonesia</t>
+          <t>Reuniting the Three Sisters: collaborative science with Native growers to improve soil and community health</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Since 2008, amidst fears of vulnerabilities related to climate change, price volatility and global food shortages, an increasingly conflicted policy field has emerged in the global south. Competing policy narratives provide for rival policy orientations with respect to food policy, land rights, the environment and justice. This paper considers the implications of different choices associated with these rival concepts in one case – that of Indonesian Kalimantan. The paper shows how predominant framings of ‘food sovereignty’, ‘food self-sufficiency’ and ‘food security’ support scalar strategies that empower particular actors and agendas. While narratives focused on national food sovereignty support large-scale food estates in ways that fit a particular politics of food, they overlook the specific livelihood challenges facing rural populations and the problems of food poverty in marginal landscapes. Localist narratives of ‘food sovereignty’ focus on enhancing smallholder access and control over productive resources and diversification in ways that are better suited to the geography of production, but they are yet to address the political anxieties presented by food questions at the national level. If policy choices are to deal with the underlying issues, then the alternative values, guiding assumptions and scalar strategies encompassed by rival narratives need to be appraised and reconciled with the specific livelihood challenges of rural people and the need to secure an inclusive and equitable society in a changing global environment. © 2017</t>
+          <t>Before Euro-American settlement, many Native American nations intercropped maize (Zea mays), beans (Phaseolus vulgaris), and squash (Cucurbita pepo) in what is colloquially called the “Three Sisters.” Here we review the historic importance and consequences of rejuvenation of Three Sisters intercropping (3SI), outline a framework to engage Native growers in community science with positive feedbacks to university research, and present preliminary findings from ethnography and a randomized, replicated 3SI experiment. We developed mutually beneficial collaborative research agendas with four Midwestern US Native American nations. Ethnographic data highlighted a culturally based respect for 3SI as living beings, the importance it holds for all cultural facets of these Native nations, and the critical impact the practice has on environmental sustainability. One concern expressed by Native growers during ethnographic research was improving soil health—part of the rationale for establishing the 3SI agronomic experiment. To address this, we collaboratively designed a 3SI experiment. After 1 year, 3SI increased short-term soil respiration by 24%, decreased salt-extractable nitrate by 54%, had no effect on soil microbial biomass (but increased its carbon-to-nitrogen ratio by 32%) compared to the average of monoculture crops. The overarching purpose of this collaborative project is to develop a deeper understanding of 3SI, its cultural importance to Native communities, and how reinvigorating the practice—and intercropping in general—can make agroecosystems more sustainable for people and the environment. © 2022, The Author(s).</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2348,15 +2348,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Agroecology in Uruguay</t>
+          <t>Transition to agroecology for improved food security and better living conditions: case study from a family farm in Pinar del Río, Cuba</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>From its origins, agroecology in Uruguay has been considered as a critique of the dominant industrial agriculture model and linked to the development of alternative thinking from multiple actors. It aims to strengthen the ecological processes in agricultural systems while discussing the phenomena of concentration, alienation, and access to land, along with the problems of family agriculture and food sovereignty. Against the deepening of the industrialized model of agriculture, different actors drive the development of a National Agroecology Plan. An agroecological transition process is proposed by building sustainable development options, which arises from the agrarian and extends to the whole society. © 2017 Taylor &amp; Francis.</t>
+          <t>The process of transition to agroecology of family farms is a topic of great importance in Cuba and the need to support family farming is gaining worldwide attention, while agroecology has been recognized as the most promising approach for the sustainable development of smallholder farmers. This work analyzes the process of agroecological conversion implemented by a family farm in western Cuba, highlighting the causes that enabled the process of transition and examining its effects on the family’s food security and livelihoods. The study shows how all the four aspects of food security–availability, access, stability, and utilization–have improved after the transition to agroecology, while positive impacts are also registered in soil quality, environmental sustainability, and resilience. From the point of view of economic sustainability, the transition has had high costs at the beginning but, after three years, agroecological production is resulting in increased income and better living conditions. The work also suggests actions to be implemented in order to advance in the process of transition to agroecology and hence achieve full food sovereignty. © 2020 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2384,15 +2384,15 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>The Developmental State and Food Sovereignty in Tanzania</t>
+          <t>Tradeoffs for the achievement of food sovereignty in the Reserva Estatal Geohidrologica Anillo de Cenotes, Yucatan</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Tanzania has been experiencing different periods of food shortages mainly because of insufficient food production. While the country has an undisputable potential for food production, the state and its development partners, such as the World Bank, believe that the unsustainable peasant food production is the main cause of the food crisis. As a panacea to the food crisis, a call for de-peasantization in favour of commercial large-scale farming, is advocated. Inspired by the work of Sam Moyo, this article argues that achieving food self-sufficiency should begin with improving peasant agriculture instead of dispossessing peasants of their land. The principles of food sovereignty must be adopted and the orientation of the state must be developmental. The state must play an activist role in investing heavily in agricultural-related projects. © 2017 SAGE Publications.</t>
+          <t>One of the main challenges facing human society is to achieve food sovereignty while conserving natural resources. This study took place in the territory REGAC to understand the dynamics related to Food Sovereignty around Yucatan in Natural Protected Areas (NPAs). The objective was to measure the state of food sovereignty in the REGAC region and in each municipality inside the territory through the radar chart methodology, which is assessed with the following dimensions: 1) access to resources, 2) social capital, 3) transformation and commercialization, and 4) food consumption. Results indicate that access to resources dimension is an unstable state, while social capital and food consumption are in a critical state; however, the most concerning dimension is transformation and commercialization, which is approaching collapse. Finally, the overall state of Food Sovereignty in the REGAC is critical. These findings are consistent with the absence of a management plan, which, if implemented, could incorporate necessary components to enhance food sovereignty, as suggested in the discussion. © The Author(s), under exclusive licence to Springer Nature B.V. 2024.</t>
         </is>
       </c>
       <c r="E55" t="n">
@@ -2420,15 +2420,15 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Investor ownership or social investment? Changing farmland ownership in Saskatchewan, Canada</t>
+          <t>Food systems in depressed and contested agro-territories: Participatory Rural Appraisal in Odemira, Portugal</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>There is growing recognition that land grabbing is a global phenomenon. In Canada, investors are particularly interested in Saskatchewan farmland, the province where 40 % of country’s agricultural land is situated. This article examines how the changing political, economic, and legal context under neoliberalism has shaped patterns of farmland ownership in Saskatchewan, between 2002 and 2014. Our research indicates that over this time, the amount of farmland owned by investors increased 16-fold. Also, the concentration of farmland ownership is on the rise, with the share of farmland owned by the largest four private owners increasing six-fold. Our methodology addresses some of the criticisms raised in the land grabbing literature. By using land titles data, we identified farmland investors and determined very precisely their landholdings thus allowing us to provide a fine-grained analysis of the actual patterns of farmland ownership. Although the article analyzes changes to farmland ownership in a specific historical, cultural and legislative context, it serves as the basis for a broader discussion of the values and priorities that land ownership policies reflect. Namely, we contrast an ‘open for business’ approach that prioritizes financial investment to one based on a land sovereignty approach that prioritizes social investment. The latter has greater potential if the aim is ecological sustainability and food sovereignty. © 2016, Springer Science+Business Media Dordrecht.</t>
+          <t>Farming regions in Europe, particularly in the South, are increasingly feeling the effects of climate change due to factors such as drought, extreme weather events, and desertification, with severe consequences for food security and food sovereignty. Additionally, decades of rural mismanagement have left countless of these farming territories severely depressed as well as at the mercy of competition for their natural resources. This paper presents and discusses the results of a Participatory Rural Appraisal conducted in the region of Odemira, Southwest Portugal. Rooted in the frameworks of agroecology and food democracy, this mixed methodology aims to support people in multiply stressed agro-territories to diagnose the state of their food systems and agroecosystems from a democratic and ecological point of view and engage local actors in imagining fairer and healthier food futures for their regions. Local food actors were invited to identify and qualify the main problems in the region's food systems, complemented by an agroecological assessment of farm production systems. The results of the study confirm the status of Odemira as a depressed and contested agro-territory, whose social, economic, and ecological vulnerability is being compounded by the clash between the model of traditional smallholder farming and that of large-scale intensive agriculture. The study also shows the potential of sustainable farming practices as well as collaboration between the different food actors to support an agroecological transition in the region. However, to jointly realise food democracy and food system sustainability, the tensions resulting from the current political support for hyper-industrialisation and the lack of democratic, institutional, and legal mechanisms available to local actors will need to be addressed head-on. Copyright © 2023 Horstink, Schwemmlein and Encarnação.</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2456,15 +2456,15 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Codesigning a resilient food system</t>
+          <t>Food security in times of war: Double discourse and violent conflicts. The case of Russia, 2014–2022</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2016</v>
+        <v>2023</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Global changes, especially the progression of climate change, create a plethora of adaptation needs for social-ecological systems. With increasing uncertainty, more resilient food systems that are able to adapt and shape their operations in response to emerging challenges are required. Most of the research on this subject has been focused on developing countries; however, developed countries also face increasing environmental, economic, and social pressures. Because food systems are complex and involve multiple actors, using codesign might be the most productive way to develop desirable system characteristics. For this study, we engaged food system actors in a scenario-planning exercise to identify means of building more resilient food systems. In particular, the actors focused on determinants of adaptive capacity in developed countries, with Finland as a case study. The brainstorming session followed by a two-round Delphi study raised three main characteristics for effective food system resilience, namely, energy and nutrient sovereignty, transparency and dialogue in the food chain, and continuous innovativeness and evidence-based learning. In addition, policy interventions were found instrumental for supporting such food system resilience. The main actor-specific determinants of adaptive capacity identified included the farmers’ utilization of agri-technology and expertise; energy and logistic efficiency of the input and processing industry; and for retail, communication to build consumer trust and environmental awareness, and effective use of information and communication technology. Of the food system actors, farmers and the processing industry were perceived to be the closest to reaching the limits of their adaptive capacities. The use of adaptive capacity as a proxy seemed to concretize food system resilience effectively. Our study suggests that the resilience approach generates new perspectives that can guide actors in developing food systems that are adaptive in uncertainty. © 2016 by the author(s).</t>
+          <t>The food security doctrine was adopted by the Russian Federation in 2010. Developed under the leadership of President Dmitry Medvedev, it established food security as a central component of national security. The concept emerged as an issue of global public debate in response to the 2006–2008 hunger crisis in the Global South. In Russia though, the initial interpretation of the concept, which emphasised the accessibility of food resources, was transformed into a slogan advocating domestic agri-food production. The article examines the Russian case from 2014 to 2022. It analyses how the narrative on food security constructs common goods such as ‘domestic territory’ or ‘food sovereignty’ and its subsequent implications for the prioritisation of certain values (e.g. production, sovereignty), social groups (e.g. producers over consumers), and roles in economic life (e.g. trade). Finally, this article will incorporate an updated analysis of official discourses on food security produced by the government following the invasion of Ukraine in 2022. © The Author(s) 2023.</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2492,15 +2492,15 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>The Prism of Expanding Peasants' Rights: A Critical Investigation of Diverse Frames Applied to la Vía Campesina's Human Rights Engagements</t>
+          <t>Characterization of the Territory and Estimation of a Synthetic Index of Social Welfare</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Since its foundation in 1993, La Vía Campesina has surged to the forefront of the global alter-globalization movement of movements, mobilizing human rights discourse to promote small-scale sustainable agriculture as a key component of social justice, equity, dignity, and autonomy everywhere. This literature review argues that food sovereignty - La Vía Campesina's best known, rights-based innovation - inflects a range of other interrelated but distinct frames that variously foreground peasants' rights, "peasantness," land, cultural recognition, and collective emancipation, prefiguring an array of prospects for the expansion of human rights to peasants and other marginalized populations confronting the failures of capitalist globalization. © 2018 Koninklijke Brill NV, Leiden, The Netherlands.</t>
+          <t>The rural approach to territorial development has challenged globalization; the countries have opened their agricultural borders through trade agreements that benefit the rural sector. Europe has become an agricultural power, leading the design of foreign trade policies for products of agricultural origin, expanding its areas of influence to underdeveloped countries, proposing changes in the world economy. This approach proposes to build and strengthen cultural identity in rural territories and improving the quality of life. This research proposes the development of a synthetic well-being index for fifteen rural municipalities in the province of Malaga, in the south of the Autonomous Community of Andalusia. The results show that the results of the studied territories are homogeneous, with small differences in the capital of the Antequera Region. © 2022 María‐Salomé Ochoa‐Rico et al.</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2528,15 +2528,15 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Concern over palm oil expansion</t>
+          <t>Achieving Food Security Through Localisation, Not Aid: “De-development” and Food Sovereignty in the Palestinian Territories</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>A coalition of organizations and representatives of civil society from across Asia, Africa, and Latin America expressed their concerns about the impact of Europe's biofuels policies, particularly on escalating demand for palm oil, implying an unsustainable global land footprint. Around 90% of the world's palm oil is grown in Indonesia and Malaysia. The growth of palm oil plantations in Latin America and Africa indicated that it has led to land grabbing and conflict, along with loss of clean water supplies, food sovereignty and cultural integrity. The coalition urge all member states of the European Parliament to vote for biofuels policy reforms that will ensure the protection of people and environment from the affected regions from the impacts of palm oil expansion.</t>
+          <t>Food aid is a common response to the food insecurity brought by conflict and inadequate development. Yet the very well-intentioned actions that are meant to stave off immediate humanitarian crises may, in the long-term, serve as tools that promote dependence, decrease the likelihood of sustainable development, and make peace less possible. In this article, I examine food insecurity and food aid in the conflict-affected Palestinian territories. I will describe ways in which Palestinian efforts to localise food production and increase food security are actively hindered, as well as how the system of humanitarian food assistance meant to fill these gaps may in fact perpetuate them. Finally, I discuss policy recommendations for stakeholders in the conflict that can encourage Palestinian food sovereignty in a manner that increases prospects for long-term peace and development, while providing immediate benefits for Palestinian quality of life and well-being. © The Author(s) 2020.</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2564,15 +2564,15 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Biodiversity of Soil Mesofauna Associated with the Design of Home Gardens in Mapuche Agroecosystems—Case Study in the Araucanía Region</t>
+          <t>The territorial policy of rural development in brazil: Questions and reflections about the reconnection between production and consumption of food; [A política territorial do desenvolvimento rural no Brasil: Perguntas e reflexões sobre a reconexão entre produção e consumo de alimentos]; [La política territorial del desarrollo rural en Brasil: Preguntas y reflexiones sobre la reconexión entre producción y consumo de alimentos]</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Home gardens play a transcendental role in food sovereignty, for which the management of habitats above ground and underground are complementary strategies. This study aims to compare the biodiversity of soil mesofauna groups between agroecosystems with a conventional and an agroecological design. Through the combination of quantitative (plant inventories) and qualitative (mobile interviewing and talking maps) techniques, the units of this study was described. Soil samples were mounted in a Berlesse–Tullgren system, and the abundance, richness, diversity, and equality of soil organisms were determined. The relationships between functional groups were compared taxonomically and biocenotically. The results indicated higher equality in the conventional home garden, while the communities studied present a medium taxocenotic similarity, without great biocenotic differences. The diversity and richness of taxa, as well as the abundance in each group identified, were higher in the agroecological garden, which had more medicinal and aromatic plants. © 2023 by the authors.</t>
+          <t>Short marketing circuits and territorial rural development policies emphasize the importance of the reconnection between food production and consumption, with repercussions on the food security and sovereignty of local populations. For this, we analyzed official documents of the Program for the Sustainable Development of Rural Territories, the Citizenship Territories Program, the Territorial Development Plans, as well as field research on projects carried out in three rural territories and citizenship in the South of Brazil. From this analysis, it is possible to think of the strengthening of short circuits as the mechanism to promote rural territorial development. © 2019, Pontificia Universidad Javeriana. All rights reserved.</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2600,15 +2600,15 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Reuniting the Three Sisters: collaborative science with Native growers to improve soil and community health</t>
+          <t>Agroecology and food sovereignty</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Before Euro-American settlement, many Native American nations intercropped maize (Zea mays), beans (Phaseolus vulgaris), and squash (Cucurbita pepo) in what is colloquially called the “Three Sisters.” Here we review the historic importance and consequences of rejuvenation of Three Sisters intercropping (3SI), outline a framework to engage Native growers in community science with positive feedbacks to university research, and present preliminary findings from ethnography and a randomized, replicated 3SI experiment. We developed mutually beneficial collaborative research agendas with four Midwestern US Native American nations. Ethnographic data highlighted a culturally based respect for 3SI as living beings, the importance it holds for all cultural facets of these Native nations, and the critical impact the practice has on environmental sustainability. One concern expressed by Native growers during ethnographic research was improving soil health—part of the rationale for establishing the 3SI agronomic experiment. To address this, we collaboratively designed a 3SI experiment. After 1 year, 3SI increased short-term soil respiration by 24%, decreased salt-extractable nitrate by 54%, had no effect on soil microbial biomass (but increased its carbon-to-nitrogen ratio by 32%) compared to the average of monoculture crops. The overarching purpose of this collaborative project is to develop a deeper understanding of 3SI, its cultural importance to Native communities, and how reinvigorating the practice—and intercropping in general—can make agroecosystems more sustainable for people and the environment. © 2022, The Author(s).</t>
+          <t>We propose that agroecology provides a framework for understanding ‘levels’ for the transition to sustainable food systems. If we agree that agroecology includes social and political dimensions of governing territorial food systems, then it must be linked to movements for food sovereignty. However, the concentration of power in food and farming systems locks in industrial logic, posing immense barriers to agroecological and social transition. This creates a tension between efforts at convergence of food system innovations from below, versus co-optation of grass-roots language and practices by private and public actors who are committed not to changing the logic of industrial agriculture, but instead to reducing its harm. We suggest agroecological and food sovereignty movements consciously embrace this tension as a dance of creativity and appropriation. If this dance can be made generative rather than deadly, it can open pathways for transition to new ways of seeing, experiencing, and getting food. © 2019 The Authors. IDS Bulletin and Institute of Development Studies.</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2625,42 +2625,6 @@
         </is>
       </c>
       <c r="H61" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Transition to agroecology for improved food security and better living conditions: case study from a family farm in Pinar del Río, Cuba</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>2020</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>The process of transition to agroecology of family farms is a topic of great importance in Cuba and the need to support family farming is gaining worldwide attention, while agroecology has been recognized as the most promising approach for the sustainable development of smallholder farmers. This work analyzes the process of agroecological conversion implemented by a family farm in western Cuba, highlighting the causes that enabled the process of transition and examining its effects on the family’s food security and livelihoods. The study shows how all the four aspects of food security–availability, access, stability, and utilization–have improved after the transition to agroecology, while positive impacts are also registered in soil quality, environmental sustainability, and resilience. From the point of view of economic sustainability, the transition has had high costs at the beginning but, after three years, agroecological production is resulting in increased income and better living conditions. The work also suggests actions to be implemented in order to advance in the process of transition to agroecology and hence achieve full food sovereignty. © 2020 Taylor &amp; Francis.</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>1</v>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
         <is>
           <t>_</t>
         </is>
